--- a/data/trans_orig/P38A-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P38A-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9AC16951-FD21-4D93-B905-9BA418C59159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA33B1D0-3C63-4724-AD3F-426C09EF3AAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4E3BEB8F-F896-4FE9-B623-C55A1E45E780}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{07B5420B-A2F3-43C6-8C54-75062BA6AAE3}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="474">
   <si>
     <t>Población según si le han tomado la tensión alguna vez un/a profesional sanitario/a en 2012 (Tasa respuesta: 99,46%)</t>
   </si>
@@ -85,55 +85,55 @@
     <t>86,68%</t>
   </si>
   <si>
-    <t>83,03%</t>
-  </si>
-  <si>
-    <t>89,44%</t>
+    <t>83,2%</t>
+  </si>
+  <si>
+    <t>89,3%</t>
   </si>
   <si>
     <t>92,32%</t>
   </si>
   <si>
-    <t>89,73%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
   </si>
   <si>
     <t>89,56%</t>
   </si>
   <si>
-    <t>87,63%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
+    <t>87,66%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
   </si>
   <si>
     <t>13,32%</t>
   </si>
   <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
   </si>
   <si>
     <t>7,68%</t>
   </si>
   <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
   </si>
   <si>
     <t>10,44%</t>
   </si>
   <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
   </si>
   <si>
     <t>100%</t>
@@ -145,16 +145,16 @@
     <t>88,47%</t>
   </si>
   <si>
-    <t>84,43%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
+    <t>84,67%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
   </si>
   <si>
     <t>92,4%</t>
   </si>
   <si>
-    <t>88,81%</t>
+    <t>89,15%</t>
   </si>
   <si>
     <t>94,99%</t>
@@ -163,1171 +163,1198 @@
     <t>90,49%</t>
   </si>
   <si>
+    <t>88,07%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>83,35%</t>
+  </si>
+  <si>
+    <t>80,19%</t>
+  </si>
+  <si>
+    <t>86,14%</t>
+  </si>
+  <si>
+    <t>88,23%</t>
+  </si>
+  <si>
+    <t>85,43%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>85,82%</t>
+  </si>
+  <si>
+    <t>83,76%</t>
+  </si>
+  <si>
+    <t>87,69%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>86,72%</t>
+  </si>
+  <si>
+    <t>81,25%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>89,45%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>90,04%</t>
+  </si>
+  <si>
+    <t>86,81%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>86,97%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>89,69%</t>
+  </si>
+  <si>
+    <t>86,74%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>91,37%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>89,92%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>78,55%</t>
+  </si>
+  <si>
+    <t>75,4%</t>
+  </si>
+  <si>
+    <t>81,34%</t>
+  </si>
+  <si>
+    <t>82,02%</t>
+  </si>
+  <si>
+    <t>79,12%</t>
+  </si>
+  <si>
+    <t>84,46%</t>
+  </si>
+  <si>
+    <t>80,34%</t>
+  </si>
+  <si>
+    <t>78,26%</t>
+  </si>
+  <si>
+    <t>82,22%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>85,31%</t>
+  </si>
+  <si>
+    <t>83,93%</t>
+  </si>
+  <si>
+    <t>86,58%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>88,6%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
+  </si>
+  <si>
+    <t>86,73%</t>
+  </si>
+  <si>
+    <t>88,32%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si le han tomado la tensión alguna vez un/a profesional sanitario/a en 2015 (Tasa respuesta: 99,54%)</t>
+  </si>
+  <si>
+    <t>74,09%</t>
+  </si>
+  <si>
+    <t>68,36%</t>
+  </si>
+  <si>
+    <t>79,81%</t>
+  </si>
+  <si>
+    <t>85,16%</t>
+  </si>
+  <si>
+    <t>80,75%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>79,59%</t>
+  </si>
+  <si>
+    <t>76,04%</t>
+  </si>
+  <si>
+    <t>82,71%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>86,61%</t>
+  </si>
+  <si>
+    <t>83,22%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>89,95%</t>
+  </si>
+  <si>
+    <t>88,12%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>89,76%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>89,07%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>89,96%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>77,98%</t>
+  </si>
+  <si>
+    <t>72,61%</t>
+  </si>
+  <si>
+    <t>83,39%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
+  </si>
+  <si>
+    <t>84,58%</t>
+  </si>
+  <si>
+    <t>83,58%</t>
+  </si>
+  <si>
+    <t>79,88%</t>
+  </si>
+  <si>
+    <t>86,96%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>80,47%</t>
+  </si>
+  <si>
+    <t>89,26%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>88,22%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>85,77%</t>
+  </si>
+  <si>
+    <t>91,08%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>72,62%</t>
+  </si>
+  <si>
+    <t>68,79%</t>
+  </si>
+  <si>
+    <t>76,09%</t>
+  </si>
+  <si>
+    <t>79,83%</t>
+  </si>
+  <si>
+    <t>76,65%</t>
+  </si>
+  <si>
+    <t>82,67%</t>
+  </si>
+  <si>
+    <t>76,32%</t>
+  </si>
+  <si>
+    <t>73,73%</t>
+  </si>
+  <si>
+    <t>78,69%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>88,69%</t>
+  </si>
+  <si>
+    <t>86,19%</t>
+  </si>
+  <si>
+    <t>90,71%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>90,3%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>82,19%</t>
+  </si>
+  <si>
+    <t>84,76%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>86,78%</t>
+  </si>
+  <si>
+    <t>85,95%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>Población según si le han tomado la tensión alguna vez un/a profesional sanitario/a en 2023 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>88,94%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>87,33%</t>
+  </si>
+  <si>
+    <t>81,8%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>86,99%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>89,11%</t>
+  </si>
+  <si>
+    <t>86,18%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>89,65%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>84,22%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>80,26%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>84,23%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>82,97%</t>
+  </si>
+  <si>
+    <t>76,01%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
+  </si>
+  <si>
     <t>87,98%</t>
   </si>
   <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
+    <t>83,28%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>85,68%</t>
+  </si>
+  <si>
+    <t>81,56%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
   </si>
   <si>
     <t>12,02%</t>
   </si>
   <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>83,35%</t>
-  </si>
-  <si>
-    <t>79,98%</t>
-  </si>
-  <si>
-    <t>86,02%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
-  </si>
-  <si>
-    <t>85,71%</t>
-  </si>
-  <si>
-    <t>90,36%</t>
-  </si>
-  <si>
-    <t>85,82%</t>
-  </si>
-  <si>
-    <t>83,72%</t>
-  </si>
-  <si>
-    <t>87,69%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>86,72%</t>
-  </si>
-  <si>
-    <t>81,65%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>89,22%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
-  </si>
-  <si>
-    <t>87,03%</t>
-  </si>
-  <si>
-    <t>93,03%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>86,97%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>89,69%</t>
-  </si>
-  <si>
-    <t>87,01%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>89,94%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>78,55%</t>
-  </si>
-  <si>
-    <t>75,27%</t>
-  </si>
-  <si>
-    <t>81,35%</t>
-  </si>
-  <si>
-    <t>82,02%</t>
-  </si>
-  <si>
-    <t>79,47%</t>
-  </si>
-  <si>
-    <t>85,12%</t>
-  </si>
-  <si>
-    <t>80,34%</t>
-  </si>
-  <si>
-    <t>78,25%</t>
-  </si>
-  <si>
-    <t>82,36%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>85,31%</t>
-  </si>
-  <si>
-    <t>84,02%</t>
-  </si>
-  <si>
-    <t>86,54%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
-  </si>
-  <si>
-    <t>88,57%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>86,67%</t>
-  </si>
-  <si>
-    <t>88,3%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si le han tomado la tensión alguna vez un/a profesional sanitario/a en 2015 (Tasa respuesta: 99,54%)</t>
-  </si>
-  <si>
-    <t>74,09%</t>
-  </si>
-  <si>
-    <t>68,78%</t>
-  </si>
-  <si>
-    <t>79,44%</t>
-  </si>
-  <si>
-    <t>85,16%</t>
-  </si>
-  <si>
-    <t>80,56%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>79,59%</t>
-  </si>
-  <si>
-    <t>76,01%</t>
-  </si>
-  <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>86,61%</t>
-  </si>
-  <si>
-    <t>83,33%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>89,95%</t>
-  </si>
-  <si>
-    <t>87,84%</t>
-  </si>
-  <si>
-    <t>91,69%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>85,76%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>89,97%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>89,45%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>90,38%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>77,98%</t>
-  </si>
-  <si>
-    <t>72,13%</t>
-  </si>
-  <si>
-    <t>83,2%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>84,56%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>83,58%</t>
-  </si>
-  <si>
-    <t>79,66%</t>
-  </si>
-  <si>
-    <t>86,7%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>80,09%</t>
-  </si>
-  <si>
-    <t>89,11%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>85,67%</t>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
   </si>
   <si>
     <t>91,01%</t>
   </si>
   <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
   </si>
   <si>
     <t>8,99%</t>
   </si>
   <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>72,62%</t>
-  </si>
-  <si>
-    <t>68,71%</t>
-  </si>
-  <si>
-    <t>76,1%</t>
-  </si>
-  <si>
-    <t>79,83%</t>
-  </si>
-  <si>
-    <t>76,83%</t>
-  </si>
-  <si>
-    <t>82,75%</t>
-  </si>
-  <si>
-    <t>76,32%</t>
-  </si>
-  <si>
-    <t>73,81%</t>
-  </si>
-  <si>
-    <t>78,64%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>88,69%</t>
-  </si>
-  <si>
-    <t>86,4%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>90,2%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>82,1%</t>
-  </si>
-  <si>
-    <t>84,92%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>88,75%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>86,78%</t>
-  </si>
-  <si>
-    <t>85,91%</t>
-  </si>
-  <si>
-    <t>87,51%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>Población según si le han tomado la tensión alguna vez un/a profesional sanitario/a en 2023 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>89,36%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>87,33%</t>
-  </si>
-  <si>
-    <t>82,21%</t>
-  </si>
-  <si>
-    <t>91,2%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>87,55%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>86,14%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>88,95%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>82,86%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>78,81%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>83,93%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>82,97%</t>
-  </si>
-  <si>
-    <t>76,58%</t>
-  </si>
-  <si>
-    <t>87,74%</t>
-  </si>
-  <si>
-    <t>85,68%</t>
-  </si>
-  <si>
-    <t>81,74%</t>
-  </si>
-  <si>
-    <t>88,92%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
     <t>2,95%</t>
   </si>
   <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
   </si>
   <si>
     <t>4,03%</t>
   </si>
   <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
   </si>
   <si>
     <t>84,62%</t>
   </si>
   <si>
-    <t>80,1%</t>
+    <t>80,08%</t>
+  </si>
+  <si>
+    <t>87,96%</t>
   </si>
   <si>
     <t>92,41%</t>
   </si>
   <si>
-    <t>89,78%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
+    <t>89,64%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
   </si>
   <si>
     <t>89,0%</t>
   </si>
   <si>
+    <t>86,43%</t>
+  </si>
+  <si>
     <t>91,71%</t>
   </si>
   <si>
     <t>15,38%</t>
   </si>
   <si>
-    <t>19,9%</t>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
   </si>
   <si>
     <t>7,59%</t>
   </si>
   <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
   </si>
   <si>
     <t>11,0%</t>
@@ -1336,106 +1363,103 @@
     <t>8,29%</t>
   </si>
   <si>
+    <t>13,57%</t>
+  </si>
+  <si>
     <t>61,04%</t>
   </si>
   <si>
-    <t>47,91%</t>
-  </si>
-  <si>
-    <t>66,03%</t>
+    <t>49,88%</t>
+  </si>
+  <si>
+    <t>66,63%</t>
   </si>
   <si>
     <t>72,86%</t>
   </si>
   <si>
-    <t>69,45%</t>
-  </si>
-  <si>
-    <t>76,07%</t>
+    <t>69,35%</t>
+  </si>
+  <si>
+    <t>75,95%</t>
   </si>
   <si>
     <t>66,98%</t>
   </si>
   <si>
-    <t>59,44%</t>
-  </si>
-  <si>
-    <t>70,32%</t>
+    <t>59,7%</t>
+  </si>
+  <si>
+    <t>70,17%</t>
   </si>
   <si>
     <t>38,96%</t>
   </si>
   <si>
-    <t>33,97%</t>
-  </si>
-  <si>
-    <t>52,09%</t>
+    <t>33,37%</t>
+  </si>
+  <si>
+    <t>50,12%</t>
   </si>
   <si>
     <t>27,14%</t>
   </si>
   <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
   </si>
   <si>
     <t>33,02%</t>
   </si>
   <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>40,56%</t>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>40,3%</t>
   </si>
   <si>
     <t>82,0%</t>
   </si>
   <si>
-    <t>77,45%</t>
-  </si>
-  <si>
-    <t>83,92%</t>
+    <t>77,54%</t>
+  </si>
+  <si>
+    <t>84,11%</t>
   </si>
   <si>
     <t>88,48%</t>
   </si>
   <si>
-    <t>89,96%</t>
-  </si>
-  <si>
-    <t>85,43%</t>
-  </si>
-  <si>
-    <t>83,45%</t>
-  </si>
-  <si>
-    <t>86,69%</t>
+    <t>87,0%</t>
+  </si>
+  <si>
+    <t>89,87%</t>
+  </si>
+  <si>
+    <t>83,36%</t>
   </si>
   <si>
     <t>18,0%</t>
   </si>
   <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
   </si>
   <si>
     <t>11,52%</t>
   </si>
   <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
   </si>
 </sst>
 </file>
@@ -1847,7 +1871,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD606CFA-CBA6-4E77-B0FB-A0B4C2954FB6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5825967F-AF63-4F37-8660-A64BE5113227}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2901,10 +2925,10 @@
         <v>113</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>22</v>
+        <v>114</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M22" s="7">
         <v>1141</v>
@@ -2913,13 +2937,13 @@
         <v>1235001</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2934,13 +2958,13 @@
         <v>67961</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H23" s="7">
         <v>44</v>
@@ -2949,13 +2973,13 @@
         <v>45042</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>30</v>
+        <v>124</v>
       </c>
       <c r="M23" s="7">
         <v>106</v>
@@ -2964,13 +2988,13 @@
         <v>113003</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3026,7 +3050,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3038,13 +3062,13 @@
         <v>607859</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="H25" s="7">
         <v>617</v>
@@ -3053,13 +3077,13 @@
         <v>673265</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="M25" s="7">
         <v>1170</v>
@@ -3068,13 +3092,13 @@
         <v>1281123</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3089,13 +3113,13 @@
         <v>166015</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H26" s="7">
         <v>137</v>
@@ -3104,13 +3128,13 @@
         <v>147554</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="M26" s="7">
         <v>296</v>
@@ -3119,13 +3143,13 @@
         <v>313569</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3193,13 +3217,13 @@
         <v>2903265</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="H28" s="7">
         <v>2938</v>
@@ -3208,28 +3232,28 @@
         <v>3178406</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="M28" s="7">
         <v>5645</v>
       </c>
       <c r="N28" s="7">
-        <v>6081670</v>
+        <v>6081671</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3244,13 +3268,13 @@
         <v>500113</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H29" s="7">
         <v>348</v>
@@ -3259,13 +3283,13 @@
         <v>366329</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="M29" s="7">
         <v>827</v>
@@ -3274,13 +3298,13 @@
         <v>866442</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3322,7 +3346,7 @@
         <v>6472</v>
       </c>
       <c r="N30" s="7">
-        <v>6948112</v>
+        <v>6948113</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>32</v>
@@ -3336,7 +3360,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -3360,7 +3384,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60AD0292-FC1B-4C3B-8491-4D7731175949}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AC32434-E55D-4F99-8C63-7D61F43A0106}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3377,7 +3401,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3484,13 +3508,13 @@
         <v>215537</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="H4" s="7">
         <v>234</v>
@@ -3499,13 +3523,13 @@
         <v>244925</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M4" s="7">
         <v>431</v>
@@ -3514,13 +3538,13 @@
         <v>460462</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3535,13 +3559,13 @@
         <v>75373</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H5" s="7">
         <v>42</v>
@@ -3550,13 +3574,13 @@
         <v>42683</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M5" s="7">
         <v>108</v>
@@ -3565,13 +3589,13 @@
         <v>118056</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3639,13 +3663,13 @@
         <v>429549</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="H7" s="7">
         <v>448</v>
@@ -3654,13 +3678,13 @@
         <v>487071</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="M7" s="7">
         <v>855</v>
@@ -3669,13 +3693,13 @@
         <v>916620</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3690,13 +3714,13 @@
         <v>66416</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="H8" s="7">
         <v>36</v>
@@ -3705,13 +3729,13 @@
         <v>36013</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="M8" s="7">
         <v>99</v>
@@ -3720,13 +3744,13 @@
         <v>102429</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3794,13 +3818,13 @@
         <v>286859</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="H10" s="7">
         <v>307</v>
@@ -3809,13 +3833,13 @@
         <v>312143</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="M10" s="7">
         <v>608</v>
@@ -3824,13 +3848,13 @@
         <v>599001</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3845,13 +3869,13 @@
         <v>31706</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="H11" s="7">
         <v>24</v>
@@ -3860,13 +3884,13 @@
         <v>23247</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="M11" s="7">
         <v>58</v>
@@ -3875,13 +3899,13 @@
         <v>54953</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3949,13 +3973,13 @@
         <v>339249</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="H13" s="7">
         <v>331</v>
@@ -3964,13 +3988,13 @@
         <v>360516</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>117</v>
+        <v>224</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="M13" s="7">
         <v>657</v>
@@ -3979,13 +4003,13 @@
         <v>699765</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4000,13 +4024,13 @@
         <v>28758</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="H14" s="7">
         <v>27</v>
@@ -4015,13 +4039,13 @@
         <v>26767</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>124</v>
+        <v>233</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="M14" s="7">
         <v>53</v>
@@ -4030,13 +4054,13 @@
         <v>55525</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4104,13 +4128,13 @@
         <v>164714</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="H16" s="7">
         <v>197</v>
@@ -4119,13 +4143,13 @@
         <v>194528</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>240</v>
+        <v>37</v>
       </c>
       <c r="M16" s="7">
         <v>362</v>
@@ -4134,13 +4158,13 @@
         <v>359242</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4155,13 +4179,13 @@
         <v>46507</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="H17" s="7">
         <v>26</v>
@@ -4170,13 +4194,13 @@
         <v>24059</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>248</v>
+        <v>46</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="M17" s="7">
         <v>73</v>
@@ -4185,13 +4209,13 @@
         <v>70566</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4259,13 +4283,13 @@
         <v>223199</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="H19" s="7">
         <v>238</v>
@@ -4274,13 +4298,13 @@
         <v>249336</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="M19" s="7">
         <v>458</v>
@@ -4289,13 +4313,13 @@
         <v>472536</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4310,13 +4334,13 @@
         <v>38889</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="H20" s="7">
         <v>23</v>
@@ -4325,13 +4349,13 @@
         <v>22033</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="M20" s="7">
         <v>61</v>
@@ -4340,13 +4364,13 @@
         <v>60922</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4414,13 +4438,13 @@
         <v>473663</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="H22" s="7">
         <v>507</v>
@@ -4429,13 +4453,13 @@
         <v>548549</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="M22" s="7">
         <v>924</v>
@@ -4444,13 +4468,13 @@
         <v>1022211</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4465,13 +4489,13 @@
         <v>178582</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="H23" s="7">
         <v>135</v>
@@ -4480,13 +4504,13 @@
         <v>138571</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="M23" s="7">
         <v>295</v>
@@ -4495,13 +4519,13 @@
         <v>317153</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4557,7 +4581,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4569,13 +4593,13 @@
         <v>683530</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="H25" s="7">
         <v>708</v>
@@ -4584,13 +4608,13 @@
         <v>778115</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="M25" s="7">
         <v>1367</v>
@@ -4599,13 +4623,13 @@
         <v>1461645</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4620,13 +4644,13 @@
         <v>87180</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="H26" s="7">
         <v>45</v>
@@ -4635,13 +4659,13 @@
         <v>46090</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>26</v>
+        <v>88</v>
       </c>
       <c r="M26" s="7">
         <v>130</v>
@@ -4650,13 +4674,13 @@
         <v>133270</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4724,13 +4748,13 @@
         <v>2816300</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="H28" s="7">
         <v>2970</v>
@@ -4739,13 +4763,13 @@
         <v>3175183</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>304</v>
+        <v>222</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="M28" s="7">
         <v>5662</v>
@@ -4754,13 +4778,13 @@
         <v>5991483</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>308</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4775,13 +4799,13 @@
         <v>553411</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="H29" s="7">
         <v>358</v>
@@ -4790,25 +4814,25 @@
         <v>359463</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>313</v>
+        <v>232</v>
       </c>
       <c r="M29" s="7">
         <v>877</v>
       </c>
       <c r="N29" s="7">
-        <v>912874</v>
+        <v>912873</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>315</v>
+        <v>31</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>316</v>
@@ -4853,7 +4877,7 @@
         <v>6539</v>
       </c>
       <c r="N30" s="7">
-        <v>6904357</v>
+        <v>6904356</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>32</v>
@@ -4867,7 +4891,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -4891,7 +4915,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B46DC04-53A1-44C3-AE28-BC0536C7E5CF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8241956F-1571-4086-B282-2D72B19E68B4}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5200,13 +5224,13 @@
         <v>956891</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>254</v>
+        <v>342</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5221,13 +5245,13 @@
         <v>65818</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H8" s="7">
         <v>44</v>
@@ -5236,13 +5260,13 @@
         <v>51155</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M8" s="7">
         <v>75</v>
@@ -5251,13 +5275,13 @@
         <v>116973</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>260</v>
+        <v>351</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5325,13 +5349,13 @@
         <v>301767</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="H10" s="7">
         <v>523</v>
@@ -5340,13 +5364,13 @@
         <v>363212</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="M10" s="7">
         <v>865</v>
@@ -5355,13 +5379,13 @@
         <v>664979</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5376,13 +5400,13 @@
         <v>20473</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="H11" s="7">
         <v>13</v>
@@ -5391,13 +5415,13 @@
         <v>10072</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="M11" s="7">
         <v>31</v>
@@ -5406,13 +5430,13 @@
         <v>30545</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5480,13 +5504,13 @@
         <v>291936</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="H13" s="7">
         <v>577</v>
@@ -5495,13 +5519,13 @@
         <v>389013</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="M13" s="7">
         <v>848</v>
@@ -5510,13 +5534,13 @@
         <v>680949</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5531,13 +5555,13 @@
         <v>30304</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="H14" s="7">
         <v>22</v>
@@ -5546,13 +5570,13 @@
         <v>39543</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="M14" s="7">
         <v>43</v>
@@ -5561,13 +5585,13 @@
         <v>69847</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5635,13 +5659,13 @@
         <v>163239</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="H16" s="7">
         <v>450</v>
@@ -5650,13 +5674,13 @@
         <v>203661</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>41</v>
+        <v>393</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>371</v>
+        <v>394</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>207</v>
+        <v>395</v>
       </c>
       <c r="M16" s="7">
         <v>688</v>
@@ -5665,13 +5689,13 @@
         <v>366899</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>393</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5686,13 +5710,13 @@
         <v>33509</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="H17" s="7">
         <v>41</v>
@@ -5701,13 +5725,13 @@
         <v>27835</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>51</v>
+        <v>401</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>216</v>
+        <v>402</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>381</v>
+        <v>403</v>
       </c>
       <c r="M17" s="7">
         <v>82</v>
@@ -5716,13 +5740,13 @@
         <v>61345</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>398</v>
+        <v>180</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5790,13 +5814,13 @@
         <v>263047</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="H19" s="7">
         <v>453</v>
@@ -5805,13 +5829,13 @@
         <v>267504</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="M19" s="7">
         <v>808</v>
@@ -5820,13 +5844,13 @@
         <v>530551</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5841,13 +5865,13 @@
         <v>14176</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="H20" s="7">
         <v>7</v>
@@ -5856,13 +5880,13 @@
         <v>8118</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="M20" s="7">
         <v>23</v>
@@ -5871,13 +5895,13 @@
         <v>22294</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5945,13 +5969,13 @@
         <v>531211</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>56</v>
+        <v>426</v>
       </c>
       <c r="H22" s="7">
         <v>885</v>
@@ -5960,13 +5984,13 @@
         <v>743199</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="M22" s="7">
         <v>1411</v>
@@ -5975,13 +5999,13 @@
         <v>1274411</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>147</v>
+        <v>431</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5996,13 +6020,13 @@
         <v>96543</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>65</v>
+        <v>434</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
       <c r="H23" s="7">
         <v>75</v>
@@ -6011,13 +6035,13 @@
         <v>61004</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>427</v>
+        <v>436</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>428</v>
+        <v>437</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="M23" s="7">
         <v>148</v>
@@ -6026,13 +6050,13 @@
         <v>157546</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>431</v>
+        <v>440</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>155</v>
+        <v>441</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6088,7 +6112,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6100,13 +6124,13 @@
         <v>524598</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>433</v>
+        <v>443</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>434</v>
+        <v>444</v>
       </c>
       <c r="H25" s="7">
         <v>836</v>
@@ -6115,13 +6139,13 @@
         <v>632768</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="M25" s="7">
         <v>1381</v>
@@ -6130,13 +6154,13 @@
         <v>1157366</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>438</v>
+        <v>448</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>439</v>
+        <v>449</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>440</v>
+        <v>450</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6151,13 +6175,13 @@
         <v>334830</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>441</v>
+        <v>451</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>443</v>
+        <v>453</v>
       </c>
       <c r="H26" s="7">
         <v>226</v>
@@ -6166,13 +6190,13 @@
         <v>235666</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>444</v>
+        <v>454</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
       <c r="M26" s="7">
         <v>443</v>
@@ -6181,13 +6205,13 @@
         <v>570496</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>447</v>
+        <v>457</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>449</v>
+        <v>459</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6255,13 +6279,13 @@
         <v>2775971</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>450</v>
+        <v>460</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>452</v>
+        <v>462</v>
       </c>
       <c r="H28" s="7">
         <v>4926</v>
@@ -6270,13 +6294,13 @@
         <v>3369045</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>453</v>
+        <v>463</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>111</v>
+        <v>464</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
       <c r="M28" s="7">
         <v>7876</v>
@@ -6285,13 +6309,13 @@
         <v>6145016</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>455</v>
+        <v>57</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>457</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6306,13 +6330,13 @@
         <v>609257</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>458</v>
+        <v>467</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>459</v>
+        <v>468</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
       <c r="H29" s="7">
         <v>437</v>
@@ -6321,13 +6345,13 @@
         <v>438519</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>120</v>
+        <v>472</v>
       </c>
       <c r="M29" s="7">
         <v>863</v>
@@ -6336,13 +6360,13 @@
         <v>1047776</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>463</v>
+        <v>67</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>464</v>
+        <v>121</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>465</v>
+        <v>473</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6398,7 +6422,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P38A-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P38A-Provincia-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA33B1D0-3C63-4724-AD3F-426C09EF3AAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC74DF3B-AB04-4814-8DD0-D62D6E3990AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{07B5420B-A2F3-43C6-8C54-75062BA6AAE3}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E8126784-9C73-4833-832D-E3804BD73163}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="470">
   <si>
     <t>Población según si le han tomado la tensión alguna vez un/a profesional sanitario/a en 2012 (Tasa respuesta: 99,46%)</t>
   </si>
@@ -85,55 +85,55 @@
     <t>86,68%</t>
   </si>
   <si>
-    <t>83,2%</t>
-  </si>
-  <si>
-    <t>89,3%</t>
+    <t>83,08%</t>
+  </si>
+  <si>
+    <t>89,45%</t>
   </si>
   <si>
     <t>92,32%</t>
   </si>
   <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
+    <t>89,8%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
   </si>
   <si>
     <t>89,56%</t>
   </si>
   <si>
-    <t>87,66%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
+    <t>87,54%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
   </si>
   <si>
     <t>13,32%</t>
   </si>
   <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
   </si>
   <si>
     <t>7,68%</t>
   </si>
   <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
   </si>
   <si>
     <t>10,44%</t>
   </si>
   <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
   </si>
   <si>
     <t>100%</t>
@@ -145,55 +145,55 @@
     <t>88,47%</t>
   </si>
   <si>
-    <t>84,67%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
+    <t>84,51%</t>
+  </si>
+  <si>
+    <t>91,69%</t>
   </si>
   <si>
     <t>92,4%</t>
   </si>
   <si>
-    <t>89,15%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
+    <t>89,39%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
   </si>
   <si>
     <t>90,49%</t>
   </si>
   <si>
-    <t>88,07%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
+    <t>88,1%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
   </si>
   <si>
     <t>11,53%</t>
   </si>
   <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
   </si>
   <si>
     <t>7,6%</t>
   </si>
   <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
   </si>
   <si>
     <t>9,51%</t>
   </si>
   <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -202,1261 +202,1249 @@
     <t>83,35%</t>
   </si>
   <si>
-    <t>80,19%</t>
-  </si>
-  <si>
-    <t>86,14%</t>
+    <t>80,17%</t>
+  </si>
+  <si>
+    <t>85,89%</t>
   </si>
   <si>
     <t>88,23%</t>
   </si>
   <si>
+    <t>85,68%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>85,82%</t>
+  </si>
+  <si>
+    <t>83,74%</t>
+  </si>
+  <si>
+    <t>87,86%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>86,72%</t>
+  </si>
+  <si>
+    <t>81,15%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>90,04%</t>
+  </si>
+  <si>
+    <t>86,85%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>87,46%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>89,69%</t>
+  </si>
+  <si>
+    <t>87,03%</t>
+  </si>
+  <si>
+    <t>91,89%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>78,55%</t>
+  </si>
+  <si>
+    <t>75,43%</t>
+  </si>
+  <si>
+    <t>81,4%</t>
+  </si>
+  <si>
+    <t>82,02%</t>
+  </si>
+  <si>
+    <t>79,14%</t>
+  </si>
+  <si>
+    <t>84,75%</t>
+  </si>
+  <si>
+    <t>80,34%</t>
+  </si>
+  <si>
+    <t>78,01%</t>
+  </si>
+  <si>
+    <t>82,22%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>85,31%</t>
+  </si>
+  <si>
+    <t>83,95%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>88,57%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si le han tomado la tensión alguna vez un/a profesional sanitario/a en 2016 (Tasa respuesta: 99,54%)</t>
+  </si>
+  <si>
+    <t>74,09%</t>
+  </si>
+  <si>
+    <t>68,36%</t>
+  </si>
+  <si>
+    <t>78,82%</t>
+  </si>
+  <si>
+    <t>85,16%</t>
+  </si>
+  <si>
+    <t>80,79%</t>
+  </si>
+  <si>
+    <t>88,76%</t>
+  </si>
+  <si>
+    <t>79,59%</t>
+  </si>
+  <si>
+    <t>75,86%</t>
+  </si>
+  <si>
+    <t>82,87%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>86,61%</t>
+  </si>
+  <si>
+    <t>83,39%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>89,95%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>86,73%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>89,28%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>90,54%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>77,98%</t>
+  </si>
+  <si>
+    <t>71,93%</t>
+  </si>
+  <si>
+    <t>83,17%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
+  </si>
+  <si>
+    <t>84,44%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>83,58%</t>
+  </si>
+  <si>
+    <t>79,74%</t>
+  </si>
+  <si>
+    <t>86,97%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>80,37%</t>
+  </si>
+  <si>
+    <t>89,12%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>88,51%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>85,67%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>72,62%</t>
+  </si>
+  <si>
+    <t>69,03%</t>
+  </si>
+  <si>
+    <t>76,13%</t>
+  </si>
+  <si>
+    <t>79,83%</t>
+  </si>
+  <si>
+    <t>77,0%</t>
+  </si>
+  <si>
+    <t>82,86%</t>
+  </si>
+  <si>
+    <t>76,32%</t>
+  </si>
+  <si>
+    <t>73,91%</t>
+  </si>
+  <si>
+    <t>78,76%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>30,97%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>88,69%</t>
+  </si>
+  <si>
+    <t>86,0%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>82,2%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>88,7%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>86,78%</t>
+  </si>
+  <si>
+    <t>85,92%</t>
+  </si>
+  <si>
+    <t>87,6%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>Población según si le han tomado la tensión alguna vez un/a profesional sanitario/a en 2023 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>88,94%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>87,33%</t>
+  </si>
+  <si>
+    <t>81,8%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>86,99%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>89,11%</t>
+  </si>
+  <si>
+    <t>86,18%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>89,65%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>84,22%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>80,26%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>84,23%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>82,97%</t>
+  </si>
+  <si>
+    <t>76,01%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>87,98%</t>
+  </si>
+  <si>
+    <t>83,28%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>81,56%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>91,01%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>84,62%</t>
+  </si>
+  <si>
+    <t>80,08%</t>
+  </si>
+  <si>
+    <t>87,96%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>89,64%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
+  </si>
+  <si>
+    <t>86,43%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>61,04%</t>
+  </si>
+  <si>
+    <t>49,88%</t>
+  </si>
+  <si>
+    <t>66,63%</t>
+  </si>
+  <si>
+    <t>72,86%</t>
+  </si>
+  <si>
+    <t>69,35%</t>
+  </si>
+  <si>
+    <t>75,95%</t>
+  </si>
+  <si>
+    <t>66,98%</t>
+  </si>
+  <si>
+    <t>59,7%</t>
+  </si>
+  <si>
+    <t>70,17%</t>
+  </si>
+  <si>
+    <t>38,96%</t>
+  </si>
+  <si>
+    <t>33,37%</t>
+  </si>
+  <si>
+    <t>50,12%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
+  </si>
+  <si>
+    <t>33,02%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>40,3%</t>
+  </si>
+  <si>
+    <t>82,0%</t>
+  </si>
+  <si>
+    <t>77,54%</t>
+  </si>
+  <si>
+    <t>84,11%</t>
+  </si>
+  <si>
+    <t>88,48%</t>
+  </si>
+  <si>
+    <t>87,0%</t>
+  </si>
+  <si>
+    <t>89,87%</t>
+  </si>
+  <si>
     <t>85,43%</t>
   </si>
   <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>85,82%</t>
-  </si>
-  <si>
-    <t>83,76%</t>
-  </si>
-  <si>
-    <t>87,69%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
+    <t>83,36%</t>
+  </si>
+  <si>
+    <t>86,74%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
   </si>
   <si>
     <t>14,57%</t>
   </si>
   <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>86,72%</t>
-  </si>
-  <si>
-    <t>81,25%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>89,45%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
-  </si>
-  <si>
-    <t>86,81%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>86,97%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>89,69%</t>
-  </si>
-  <si>
-    <t>86,74%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>89,92%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
     <t>13,26%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>78,55%</t>
-  </si>
-  <si>
-    <t>75,4%</t>
-  </si>
-  <si>
-    <t>81,34%</t>
-  </si>
-  <si>
-    <t>82,02%</t>
-  </si>
-  <si>
-    <t>79,12%</t>
-  </si>
-  <si>
-    <t>84,46%</t>
-  </si>
-  <si>
-    <t>80,34%</t>
-  </si>
-  <si>
-    <t>78,26%</t>
-  </si>
-  <si>
-    <t>82,22%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>85,31%</t>
-  </si>
-  <si>
-    <t>83,93%</t>
-  </si>
-  <si>
-    <t>86,58%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
-  </si>
-  <si>
-    <t>88,6%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>86,73%</t>
-  </si>
-  <si>
-    <t>88,32%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si le han tomado la tensión alguna vez un/a profesional sanitario/a en 2015 (Tasa respuesta: 99,54%)</t>
-  </si>
-  <si>
-    <t>74,09%</t>
-  </si>
-  <si>
-    <t>68,36%</t>
-  </si>
-  <si>
-    <t>79,81%</t>
-  </si>
-  <si>
-    <t>85,16%</t>
-  </si>
-  <si>
-    <t>80,75%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>79,59%</t>
-  </si>
-  <si>
-    <t>76,04%</t>
-  </si>
-  <si>
-    <t>82,71%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>86,61%</t>
-  </si>
-  <si>
-    <t>83,22%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>89,95%</t>
-  </si>
-  <si>
-    <t>88,12%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>86,46%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>89,76%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>89,07%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>77,98%</t>
-  </si>
-  <si>
-    <t>72,61%</t>
-  </si>
-  <si>
-    <t>83,39%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>84,58%</t>
-  </si>
-  <si>
-    <t>83,58%</t>
-  </si>
-  <si>
-    <t>79,88%</t>
-  </si>
-  <si>
-    <t>86,96%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>80,47%</t>
-  </si>
-  <si>
-    <t>89,26%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>88,22%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
-  </si>
-  <si>
-    <t>85,77%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>72,62%</t>
-  </si>
-  <si>
-    <t>68,79%</t>
-  </si>
-  <si>
-    <t>76,09%</t>
-  </si>
-  <si>
-    <t>79,83%</t>
-  </si>
-  <si>
-    <t>76,65%</t>
-  </si>
-  <si>
-    <t>82,67%</t>
-  </si>
-  <si>
-    <t>76,32%</t>
-  </si>
-  <si>
-    <t>73,73%</t>
-  </si>
-  <si>
-    <t>78,69%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>88,69%</t>
-  </si>
-  <si>
-    <t>86,19%</t>
-  </si>
-  <si>
-    <t>90,71%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>90,3%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>82,19%</t>
-  </si>
-  <si>
-    <t>84,76%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>86,78%</t>
-  </si>
-  <si>
-    <t>85,95%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>Población según si le han tomado la tensión alguna vez un/a profesional sanitario/a en 2023 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>88,94%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>87,33%</t>
-  </si>
-  <si>
-    <t>81,8%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>89,11%</t>
-  </si>
-  <si>
-    <t>86,18%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>84,22%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>80,26%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>84,23%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>82,97%</t>
-  </si>
-  <si>
-    <t>76,01%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
-  </si>
-  <si>
-    <t>87,98%</t>
-  </si>
-  <si>
-    <t>83,28%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>85,68%</t>
-  </si>
-  <si>
-    <t>81,56%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>91,01%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>84,62%</t>
-  </si>
-  <si>
-    <t>80,08%</t>
-  </si>
-  <si>
-    <t>87,96%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>89,64%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>86,43%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>61,04%</t>
-  </si>
-  <si>
-    <t>49,88%</t>
-  </si>
-  <si>
-    <t>66,63%</t>
-  </si>
-  <si>
-    <t>72,86%</t>
-  </si>
-  <si>
-    <t>69,35%</t>
-  </si>
-  <si>
-    <t>75,95%</t>
-  </si>
-  <si>
-    <t>66,98%</t>
-  </si>
-  <si>
-    <t>59,7%</t>
-  </si>
-  <si>
-    <t>70,17%</t>
-  </si>
-  <si>
-    <t>38,96%</t>
-  </si>
-  <si>
-    <t>33,37%</t>
-  </si>
-  <si>
-    <t>50,12%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
-  </si>
-  <si>
-    <t>33,02%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>40,3%</t>
-  </si>
-  <si>
-    <t>82,0%</t>
-  </si>
-  <si>
-    <t>77,54%</t>
-  </si>
-  <si>
-    <t>84,11%</t>
-  </si>
-  <si>
-    <t>88,48%</t>
-  </si>
-  <si>
-    <t>87,0%</t>
-  </si>
-  <si>
-    <t>89,87%</t>
-  </si>
-  <si>
-    <t>83,36%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
   </si>
   <si>
     <t>16,64%</t>
@@ -1871,7 +1859,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5825967F-AF63-4F37-8660-A64BE5113227}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{530C4954-951F-444B-AFB9-BE45D30EFAB4}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2603,7 +2591,7 @@
         <v>73</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="H16" s="7">
         <v>194</v>
@@ -2612,13 +2600,13 @@
         <v>202216</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="M16" s="7">
         <v>362</v>
@@ -2627,13 +2615,13 @@
         <v>385776</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2648,13 +2636,13 @@
         <v>28119</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H17" s="7">
         <v>15</v>
@@ -2663,13 +2651,13 @@
         <v>14546</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>86</v>
+        <v>29</v>
       </c>
       <c r="M17" s="7">
         <v>42</v>
@@ -2678,13 +2666,13 @@
         <v>42665</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2740,7 +2728,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2752,13 +2740,13 @@
         <v>249992</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="H19" s="7">
         <v>255</v>
@@ -2767,13 +2755,13 @@
         <v>265371</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="M19" s="7">
         <v>493</v>
@@ -2782,13 +2770,13 @@
         <v>515362</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2803,13 +2791,13 @@
         <v>23989</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H20" s="7">
         <v>13</v>
@@ -2818,13 +2806,13 @@
         <v>13687</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="M20" s="7">
         <v>36</v>
@@ -2833,13 +2821,13 @@
         <v>37677</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2895,7 +2883,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2907,13 +2895,13 @@
         <v>590931</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="H22" s="7">
         <v>589</v>
@@ -2922,13 +2910,13 @@
         <v>644070</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="M22" s="7">
         <v>1141</v>
@@ -2937,13 +2925,13 @@
         <v>1235001</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>117</v>
+        <v>76</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2958,13 +2946,13 @@
         <v>67961</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="H23" s="7">
         <v>44</v>
@@ -2973,13 +2961,13 @@
         <v>45042</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="M23" s="7">
         <v>106</v>
@@ -2988,13 +2976,13 @@
         <v>113003</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>127</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3050,7 +3038,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3062,13 +3050,13 @@
         <v>607859</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="H25" s="7">
         <v>617</v>
@@ -3077,13 +3065,13 @@
         <v>673265</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="M25" s="7">
         <v>1170</v>
@@ -3092,13 +3080,13 @@
         <v>1281123</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3113,13 +3101,13 @@
         <v>166015</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="H26" s="7">
         <v>137</v>
@@ -3128,13 +3116,13 @@
         <v>147554</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="M26" s="7">
         <v>296</v>
@@ -3143,13 +3131,13 @@
         <v>313569</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3217,13 +3205,13 @@
         <v>2903265</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="H28" s="7">
         <v>2938</v>
@@ -3232,28 +3220,28 @@
         <v>3178406</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="M28" s="7">
         <v>5645</v>
       </c>
       <c r="N28" s="7">
-        <v>6081671</v>
+        <v>6081670</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>154</v>
+        <v>72</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3268,13 +3256,13 @@
         <v>500113</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="H29" s="7">
         <v>348</v>
@@ -3283,13 +3271,13 @@
         <v>366329</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="M29" s="7">
         <v>827</v>
@@ -3298,13 +3286,13 @@
         <v>866442</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>164</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3346,7 +3334,7 @@
         <v>6472</v>
       </c>
       <c r="N30" s="7">
-        <v>6948113</v>
+        <v>6948112</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>32</v>
@@ -3360,7 +3348,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -3384,7 +3372,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AC32434-E55D-4F99-8C63-7D61F43A0106}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BD94935-8DD3-4B7A-9163-1230B7948F31}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3401,7 +3389,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3508,13 +3496,13 @@
         <v>215537</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="H4" s="7">
         <v>234</v>
@@ -3523,13 +3511,13 @@
         <v>244925</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="M4" s="7">
         <v>431</v>
@@ -3538,13 +3526,13 @@
         <v>460462</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3559,13 +3547,13 @@
         <v>75373</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="H5" s="7">
         <v>42</v>
@@ -3574,13 +3562,13 @@
         <v>42683</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="M5" s="7">
         <v>108</v>
@@ -3589,13 +3577,13 @@
         <v>118056</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3663,13 +3651,13 @@
         <v>429549</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="H7" s="7">
         <v>448</v>
@@ -3678,13 +3666,13 @@
         <v>487071</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="M7" s="7">
         <v>855</v>
@@ -3693,13 +3681,13 @@
         <v>916620</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3714,13 +3702,13 @@
         <v>66416</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="H8" s="7">
         <v>36</v>
@@ -3729,13 +3717,13 @@
         <v>36013</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="M8" s="7">
         <v>99</v>
@@ -3744,13 +3732,13 @@
         <v>102429</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3818,13 +3806,13 @@
         <v>286859</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="H10" s="7">
         <v>307</v>
@@ -3833,13 +3821,13 @@
         <v>312143</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="M10" s="7">
         <v>608</v>
@@ -3848,13 +3836,13 @@
         <v>599001</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3869,13 +3857,13 @@
         <v>31706</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="H11" s="7">
         <v>24</v>
@@ -3884,13 +3872,13 @@
         <v>23247</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="M11" s="7">
         <v>58</v>
@@ -3899,13 +3887,13 @@
         <v>54953</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3973,13 +3961,13 @@
         <v>339249</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>222</v>
+        <v>164</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="H13" s="7">
         <v>331</v>
@@ -3988,13 +3976,13 @@
         <v>360516</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="M13" s="7">
         <v>657</v>
@@ -4003,13 +3991,13 @@
         <v>699765</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4024,13 +4012,13 @@
         <v>28758</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>232</v>
+        <v>172</v>
       </c>
       <c r="H14" s="7">
         <v>27</v>
@@ -4039,13 +4027,13 @@
         <v>26767</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="M14" s="7">
         <v>53</v>
@@ -4054,13 +4042,13 @@
         <v>55525</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4128,13 +4116,13 @@
         <v>164714</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="H16" s="7">
         <v>197</v>
@@ -4143,13 +4131,13 @@
         <v>194528</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>37</v>
+        <v>234</v>
       </c>
       <c r="M16" s="7">
         <v>362</v>
@@ -4158,13 +4146,13 @@
         <v>359242</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4179,13 +4167,13 @@
         <v>46507</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="H17" s="7">
         <v>26</v>
@@ -4194,13 +4182,13 @@
         <v>24059</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>46</v>
+        <v>242</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="M17" s="7">
         <v>73</v>
@@ -4209,13 +4197,13 @@
         <v>70566</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4271,7 +4259,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4283,28 +4271,28 @@
         <v>223199</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="H19" s="7">
         <v>238</v>
       </c>
       <c r="I19" s="7">
-        <v>249336</v>
+        <v>249337</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="M19" s="7">
         <v>458</v>
@@ -4313,13 +4301,13 @@
         <v>472536</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4334,13 +4322,13 @@
         <v>38889</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="H20" s="7">
         <v>23</v>
@@ -4349,13 +4337,13 @@
         <v>22033</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="M20" s="7">
         <v>61</v>
@@ -4364,13 +4352,13 @@
         <v>60922</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4397,7 +4385,7 @@
         <v>261</v>
       </c>
       <c r="I21" s="7">
-        <v>271369</v>
+        <v>271370</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>32</v>
@@ -4426,7 +4414,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4438,13 +4426,13 @@
         <v>473663</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="H22" s="7">
         <v>507</v>
@@ -4453,13 +4441,13 @@
         <v>548549</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="M22" s="7">
         <v>924</v>
@@ -4468,13 +4456,13 @@
         <v>1022211</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4489,13 +4477,13 @@
         <v>178582</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="H23" s="7">
         <v>135</v>
@@ -4504,13 +4492,13 @@
         <v>138571</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="M23" s="7">
         <v>295</v>
@@ -4519,13 +4507,13 @@
         <v>317153</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4581,7 +4569,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4593,13 +4581,13 @@
         <v>683530</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>291</v>
+        <v>146</v>
       </c>
       <c r="H25" s="7">
         <v>708</v>
@@ -4608,13 +4596,13 @@
         <v>778115</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>80</v>
+        <v>284</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="M25" s="7">
         <v>1367</v>
@@ -4623,13 +4611,13 @@
         <v>1461645</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4644,13 +4632,13 @@
         <v>87180</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>298</v>
+        <v>153</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="H26" s="7">
         <v>45</v>
@@ -4659,13 +4647,13 @@
         <v>46090</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>88</v>
+        <v>293</v>
       </c>
       <c r="M26" s="7">
         <v>130</v>
@@ -4674,13 +4662,13 @@
         <v>133270</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4748,13 +4736,13 @@
         <v>2816300</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="H28" s="7">
         <v>2970</v>
@@ -4763,13 +4751,13 @@
         <v>3175183</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>222</v>
+        <v>300</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="M28" s="7">
         <v>5662</v>
@@ -4778,13 +4766,13 @@
         <v>5991483</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>21</v>
+        <v>304</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4799,13 +4787,13 @@
         <v>553411</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="H29" s="7">
         <v>358</v>
@@ -4814,13 +4802,13 @@
         <v>359463</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>232</v>
+        <v>309</v>
       </c>
       <c r="M29" s="7">
         <v>877</v>
@@ -4829,13 +4817,13 @@
         <v>912873</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>31</v>
+        <v>311</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4891,7 +4879,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -4915,7 +4903,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8241956F-1571-4086-B282-2D72B19E68B4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8DF6D66-2636-4359-AC17-28CCB85ECA89}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4932,7 +4920,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5039,13 +5027,13 @@
         <v>246694</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="H4" s="7">
         <v>529</v>
@@ -5054,13 +5042,13 @@
         <v>266277</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="M4" s="7">
         <v>851</v>
@@ -5069,13 +5057,13 @@
         <v>512970</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5090,13 +5078,13 @@
         <v>13604</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="H5" s="7">
         <v>9</v>
@@ -5105,13 +5093,13 @@
         <v>5126</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="M5" s="7">
         <v>18</v>
@@ -5120,13 +5108,13 @@
         <v>18730</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5194,13 +5182,13 @@
         <v>453479</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="H7" s="7">
         <v>673</v>
@@ -5209,13 +5197,13 @@
         <v>503411</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>339</v>
+        <v>58</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="M7" s="7">
         <v>1024</v>
@@ -5224,13 +5212,13 @@
         <v>956891</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5245,13 +5233,13 @@
         <v>65818</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="H8" s="7">
         <v>44</v>
@@ -5260,13 +5248,13 @@
         <v>51155</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>348</v>
+        <v>66</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="M8" s="7">
         <v>75</v>
@@ -5275,13 +5263,13 @@
         <v>116973</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5349,13 +5337,13 @@
         <v>301767</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="H10" s="7">
         <v>523</v>
@@ -5364,13 +5352,13 @@
         <v>363212</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="M10" s="7">
         <v>865</v>
@@ -5379,13 +5367,13 @@
         <v>664979</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5400,13 +5388,13 @@
         <v>20473</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="H11" s="7">
         <v>13</v>
@@ -5415,13 +5403,13 @@
         <v>10072</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="M11" s="7">
         <v>31</v>
@@ -5430,13 +5418,13 @@
         <v>30545</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5504,13 +5492,13 @@
         <v>291936</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="H13" s="7">
         <v>577</v>
@@ -5519,13 +5507,13 @@
         <v>389013</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="M13" s="7">
         <v>848</v>
@@ -5534,13 +5522,13 @@
         <v>680949</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5555,13 +5543,13 @@
         <v>30304</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="H14" s="7">
         <v>22</v>
@@ -5570,13 +5558,13 @@
         <v>39543</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="M14" s="7">
         <v>43</v>
@@ -5585,13 +5573,13 @@
         <v>69847</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5659,13 +5647,13 @@
         <v>163239</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="H16" s="7">
         <v>450</v>
@@ -5674,13 +5662,13 @@
         <v>203661</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="M16" s="7">
         <v>688</v>
@@ -5689,13 +5677,13 @@
         <v>366899</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>396</v>
+        <v>57</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>172</v>
+        <v>391</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5710,13 +5698,13 @@
         <v>33509</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="H17" s="7">
         <v>41</v>
@@ -5725,13 +5713,13 @@
         <v>27835</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="M17" s="7">
         <v>82</v>
@@ -5740,13 +5728,13 @@
         <v>61345</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>404</v>
+        <v>67</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>180</v>
+        <v>398</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5802,7 +5790,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5814,13 +5802,13 @@
         <v>263047</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>406</v>
+        <v>214</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="H19" s="7">
         <v>453</v>
@@ -5829,13 +5817,13 @@
         <v>267504</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="M19" s="7">
         <v>808</v>
@@ -5844,13 +5832,13 @@
         <v>530551</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5865,13 +5853,13 @@
         <v>14176</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>415</v>
+        <v>222</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="H20" s="7">
         <v>7</v>
@@ -5880,13 +5868,13 @@
         <v>8118</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="M20" s="7">
         <v>23</v>
@@ -5895,13 +5883,13 @@
         <v>22294</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5957,7 +5945,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5969,13 +5957,13 @@
         <v>531211</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="H22" s="7">
         <v>885</v>
@@ -5984,13 +5972,13 @@
         <v>743199</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="M22" s="7">
         <v>1411</v>
@@ -5999,13 +5987,13 @@
         <v>1274411</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6020,13 +6008,13 @@
         <v>96543</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="H23" s="7">
         <v>75</v>
@@ -6035,13 +6023,13 @@
         <v>61004</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="M23" s="7">
         <v>148</v>
@@ -6050,13 +6038,13 @@
         <v>157546</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6112,7 +6100,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6124,13 +6112,13 @@
         <v>524598</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="H25" s="7">
         <v>836</v>
@@ -6139,13 +6127,13 @@
         <v>632768</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="M25" s="7">
         <v>1381</v>
@@ -6154,13 +6142,13 @@
         <v>1157366</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6175,13 +6163,13 @@
         <v>334830</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="H26" s="7">
         <v>226</v>
@@ -6190,13 +6178,13 @@
         <v>235666</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="M26" s="7">
         <v>443</v>
@@ -6205,13 +6193,13 @@
         <v>570496</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6279,13 +6267,13 @@
         <v>2775971</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="H28" s="7">
         <v>4926</v>
@@ -6294,13 +6282,13 @@
         <v>3369045</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="M28" s="7">
         <v>7876</v>
@@ -6309,13 +6297,13 @@
         <v>6145016</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>57</v>
+        <v>458</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>111</v>
+        <v>460</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6330,13 +6318,13 @@
         <v>609257</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="H29" s="7">
         <v>437</v>
@@ -6345,13 +6333,13 @@
         <v>438519</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="M29" s="7">
         <v>863</v>
@@ -6360,13 +6348,13 @@
         <v>1047776</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>67</v>
+        <v>467</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>121</v>
+        <v>468</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6422,7 +6410,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P38A-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P38A-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC74DF3B-AB04-4814-8DD0-D62D6E3990AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0247393E-01BA-43E5-BF96-3237D36C528C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E8126784-9C73-4833-832D-E3804BD73163}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{20680A2C-6CE7-4BDB-BFD3-E1A51FEB3C4D}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="466">
   <si>
     <t>Población según si le han tomado la tensión alguna vez un/a profesional sanitario/a en 2012 (Tasa respuesta: 99,46%)</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Almeria</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>—%</t>
@@ -85,1252 +85,1249 @@
     <t>86,68%</t>
   </si>
   <si>
-    <t>83,08%</t>
+    <t>83,03%</t>
+  </si>
+  <si>
+    <t>89,44%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>89,73%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>89,56%</t>
+  </si>
+  <si>
+    <t>87,63%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>88,47%</t>
+  </si>
+  <si>
+    <t>84,43%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>88,81%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>87,98%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>83,35%</t>
+  </si>
+  <si>
+    <t>79,98%</t>
+  </si>
+  <si>
+    <t>86,02%</t>
+  </si>
+  <si>
+    <t>88,23%</t>
+  </si>
+  <si>
+    <t>85,71%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>85,82%</t>
+  </si>
+  <si>
+    <t>83,72%</t>
+  </si>
+  <si>
+    <t>87,69%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>86,72%</t>
+  </si>
+  <si>
+    <t>81,65%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>89,22%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>90,04%</t>
+  </si>
+  <si>
+    <t>87,03%</t>
+  </si>
+  <si>
+    <t>93,03%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>86,97%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>89,69%</t>
+  </si>
+  <si>
+    <t>87,01%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>89,94%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>78,55%</t>
+  </si>
+  <si>
+    <t>75,27%</t>
+  </si>
+  <si>
+    <t>81,35%</t>
+  </si>
+  <si>
+    <t>82,02%</t>
+  </si>
+  <si>
+    <t>79,47%</t>
+  </si>
+  <si>
+    <t>85,12%</t>
+  </si>
+  <si>
+    <t>80,34%</t>
+  </si>
+  <si>
+    <t>78,25%</t>
+  </si>
+  <si>
+    <t>82,36%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>85,31%</t>
+  </si>
+  <si>
+    <t>84,02%</t>
+  </si>
+  <si>
+    <t>86,54%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>88,57%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
+  </si>
+  <si>
+    <t>86,67%</t>
+  </si>
+  <si>
+    <t>88,3%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si le han tomado la tensión alguna vez un/a profesional sanitario/a en 2016 (Tasa respuesta: 99,54%)</t>
+  </si>
+  <si>
+    <t>74,09%</t>
+  </si>
+  <si>
+    <t>68,78%</t>
+  </si>
+  <si>
+    <t>79,44%</t>
+  </si>
+  <si>
+    <t>85,16%</t>
+  </si>
+  <si>
+    <t>80,56%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>79,59%</t>
+  </si>
+  <si>
+    <t>76,01%</t>
+  </si>
+  <si>
+    <t>82,92%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>86,61%</t>
+  </si>
+  <si>
+    <t>83,33%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>89,95%</t>
+  </si>
+  <si>
+    <t>87,84%</t>
+  </si>
+  <si>
+    <t>91,69%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>85,76%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>89,97%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
   </si>
   <si>
     <t>89,45%</t>
   </si>
   <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>89,8%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>89,56%</t>
-  </si>
-  <si>
-    <t>87,54%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
   </si>
   <si>
     <t>10,55%</t>
   </si>
   <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>88,47%</t>
-  </si>
-  <si>
-    <t>84,51%</t>
-  </si>
-  <si>
-    <t>91,69%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>90,49%</t>
-  </si>
-  <si>
-    <t>88,1%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>83,35%</t>
-  </si>
-  <si>
-    <t>80,17%</t>
-  </si>
-  <si>
-    <t>85,89%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>88,79%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>90,38%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>77,98%</t>
+  </si>
+  <si>
+    <t>72,13%</t>
+  </si>
+  <si>
+    <t>83,2%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
+  </si>
+  <si>
+    <t>84,56%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>83,58%</t>
+  </si>
+  <si>
+    <t>79,66%</t>
+  </si>
+  <si>
+    <t>86,7%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>80,09%</t>
+  </si>
+  <si>
+    <t>89,11%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>85,67%</t>
+  </si>
+  <si>
+    <t>91,01%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>72,62%</t>
+  </si>
+  <si>
+    <t>68,71%</t>
+  </si>
+  <si>
+    <t>76,1%</t>
+  </si>
+  <si>
+    <t>79,83%</t>
+  </si>
+  <si>
+    <t>76,83%</t>
+  </si>
+  <si>
+    <t>82,75%</t>
+  </si>
+  <si>
+    <t>76,32%</t>
+  </si>
+  <si>
+    <t>73,81%</t>
+  </si>
+  <si>
+    <t>78,64%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>88,69%</t>
+  </si>
+  <si>
+    <t>86,4%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>82,1%</t>
+  </si>
+  <si>
+    <t>84,92%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>88,75%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>86,78%</t>
+  </si>
+  <si>
+    <t>85,91%</t>
+  </si>
+  <si>
+    <t>87,51%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>Población según si le han tomado la tensión alguna vez un/a profesional sanitario/a en 2023 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>89,36%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>87,33%</t>
+  </si>
+  <si>
+    <t>82,21%</t>
+  </si>
+  <si>
+    <t>91,2%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>87,55%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
+  </si>
+  <si>
+    <t>86,14%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>82,86%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>78,81%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>83,93%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>82,97%</t>
+  </si>
+  <si>
+    <t>76,58%</t>
+  </si>
+  <si>
+    <t>87,74%</t>
   </si>
   <si>
     <t>85,68%</t>
   </si>
   <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>85,82%</t>
-  </si>
-  <si>
-    <t>83,74%</t>
-  </si>
-  <si>
-    <t>87,86%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
+    <t>81,74%</t>
+  </si>
+  <si>
+    <t>88,92%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
   </si>
   <si>
     <t>14,32%</t>
   </si>
   <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>86,72%</t>
-  </si>
-  <si>
-    <t>81,15%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
-  </si>
-  <si>
-    <t>86,85%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>87,46%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>89,69%</t>
-  </si>
-  <si>
-    <t>87,03%</t>
-  </si>
-  <si>
-    <t>91,89%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>78,55%</t>
-  </si>
-  <si>
-    <t>75,43%</t>
-  </si>
-  <si>
-    <t>81,4%</t>
-  </si>
-  <si>
-    <t>82,02%</t>
-  </si>
-  <si>
-    <t>79,14%</t>
-  </si>
-  <si>
-    <t>84,75%</t>
-  </si>
-  <si>
-    <t>80,34%</t>
-  </si>
-  <si>
-    <t>78,01%</t>
-  </si>
-  <si>
-    <t>82,22%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>85,31%</t>
-  </si>
-  <si>
-    <t>83,95%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
-  </si>
-  <si>
-    <t>88,57%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si le han tomado la tensión alguna vez un/a profesional sanitario/a en 2016 (Tasa respuesta: 99,54%)</t>
-  </si>
-  <si>
-    <t>74,09%</t>
-  </si>
-  <si>
-    <t>68,36%</t>
-  </si>
-  <si>
-    <t>78,82%</t>
-  </si>
-  <si>
-    <t>85,16%</t>
-  </si>
-  <si>
-    <t>80,79%</t>
-  </si>
-  <si>
-    <t>88,76%</t>
-  </si>
-  <si>
-    <t>79,59%</t>
-  </si>
-  <si>
-    <t>75,86%</t>
-  </si>
-  <si>
-    <t>82,87%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>86,61%</t>
-  </si>
-  <si>
-    <t>83,39%</t>
-  </si>
-  <si>
-    <t>89,58%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>89,95%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>91,72%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>86,73%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>89,28%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
   </si>
   <si>
     <t>94,89%</t>
   </si>
   <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
+    <t>90,86%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
   </si>
   <si>
     <t>5,11%</t>
   </si>
   <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>77,98%</t>
-  </si>
-  <si>
-    <t>71,93%</t>
-  </si>
-  <si>
-    <t>83,17%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>84,44%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>83,58%</t>
-  </si>
-  <si>
-    <t>79,74%</t>
-  </si>
-  <si>
-    <t>86,97%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>80,37%</t>
-  </si>
-  <si>
-    <t>89,12%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
-  </si>
-  <si>
-    <t>85,67%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>72,62%</t>
-  </si>
-  <si>
-    <t>69,03%</t>
-  </si>
-  <si>
-    <t>76,13%</t>
-  </si>
-  <si>
-    <t>79,83%</t>
-  </si>
-  <si>
-    <t>77,0%</t>
-  </si>
-  <si>
-    <t>82,86%</t>
-  </si>
-  <si>
-    <t>76,32%</t>
-  </si>
-  <si>
-    <t>73,91%</t>
-  </si>
-  <si>
-    <t>78,76%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>30,97%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>88,69%</t>
-  </si>
-  <si>
-    <t>86,0%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>82,2%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>88,7%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>86,78%</t>
-  </si>
-  <si>
-    <t>85,92%</t>
-  </si>
-  <si>
-    <t>87,6%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>Población según si le han tomado la tensión alguna vez un/a profesional sanitario/a en 2023 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>88,94%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>87,33%</t>
-  </si>
-  <si>
-    <t>81,8%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>89,11%</t>
-  </si>
-  <si>
-    <t>86,18%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>84,22%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>80,26%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>84,23%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>82,97%</t>
-  </si>
-  <si>
-    <t>76,01%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
-  </si>
-  <si>
-    <t>87,98%</t>
-  </si>
-  <si>
-    <t>83,28%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>81,56%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>91,01%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
   </si>
   <si>
     <t>2,95%</t>
   </si>
   <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
   </si>
   <si>
     <t>4,03%</t>
   </si>
   <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
   </si>
   <si>
     <t>84,62%</t>
   </si>
   <si>
-    <t>80,08%</t>
-  </si>
-  <si>
-    <t>87,96%</t>
+    <t>80,1%</t>
   </si>
   <si>
     <t>92,41%</t>
   </si>
   <si>
-    <t>89,64%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
+    <t>89,78%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
   </si>
   <si>
     <t>89,0%</t>
   </si>
   <si>
-    <t>86,43%</t>
-  </si>
-  <si>
     <t>91,71%</t>
   </si>
   <si>
     <t>15,38%</t>
   </si>
   <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
+    <t>19,9%</t>
   </si>
   <si>
     <t>7,59%</t>
   </si>
   <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
   </si>
   <si>
     <t>11,0%</t>
@@ -1339,115 +1336,106 @@
     <t>8,29%</t>
   </si>
   <si>
-    <t>13,57%</t>
-  </si>
-  <si>
     <t>61,04%</t>
   </si>
   <si>
-    <t>49,88%</t>
-  </si>
-  <si>
-    <t>66,63%</t>
+    <t>47,91%</t>
+  </si>
+  <si>
+    <t>66,03%</t>
   </si>
   <si>
     <t>72,86%</t>
   </si>
   <si>
-    <t>69,35%</t>
-  </si>
-  <si>
-    <t>75,95%</t>
+    <t>69,45%</t>
+  </si>
+  <si>
+    <t>76,07%</t>
   </si>
   <si>
     <t>66,98%</t>
   </si>
   <si>
-    <t>59,7%</t>
-  </si>
-  <si>
-    <t>70,17%</t>
+    <t>59,44%</t>
+  </si>
+  <si>
+    <t>70,32%</t>
   </si>
   <si>
     <t>38,96%</t>
   </si>
   <si>
-    <t>33,37%</t>
-  </si>
-  <si>
-    <t>50,12%</t>
+    <t>33,97%</t>
+  </si>
+  <si>
+    <t>52,09%</t>
   </si>
   <si>
     <t>27,14%</t>
   </si>
   <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
   </si>
   <si>
     <t>33,02%</t>
   </si>
   <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>40,3%</t>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>40,56%</t>
   </si>
   <si>
     <t>82,0%</t>
   </si>
   <si>
-    <t>77,54%</t>
-  </si>
-  <si>
-    <t>84,11%</t>
+    <t>77,45%</t>
+  </si>
+  <si>
+    <t>83,92%</t>
   </si>
   <si>
     <t>88,48%</t>
   </si>
   <si>
-    <t>87,0%</t>
-  </si>
-  <si>
-    <t>89,87%</t>
+    <t>89,96%</t>
   </si>
   <si>
     <t>85,43%</t>
   </si>
   <si>
-    <t>83,36%</t>
-  </si>
-  <si>
-    <t>86,74%</t>
+    <t>83,45%</t>
+  </si>
+  <si>
+    <t>86,69%</t>
   </si>
   <si>
     <t>18,0%</t>
   </si>
   <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
   </si>
   <si>
     <t>11,52%</t>
   </si>
   <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
+    <t>10,04%</t>
   </si>
   <si>
     <t>14,57%</t>
   </si>
   <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
   </si>
 </sst>
 </file>
@@ -1859,7 +1847,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{530C4954-951F-444B-AFB9-BE45D30EFAB4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA7FB369-F5F3-4393-A867-67B1AC83E95C}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2591,7 +2579,7 @@
         <v>73</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="H16" s="7">
         <v>194</v>
@@ -2600,13 +2588,13 @@
         <v>202216</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M16" s="7">
         <v>362</v>
@@ -2615,13 +2603,13 @@
         <v>385776</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2636,13 +2624,13 @@
         <v>28119</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H17" s="7">
         <v>15</v>
@@ -2651,13 +2639,13 @@
         <v>14546</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>29</v>
+        <v>86</v>
       </c>
       <c r="M17" s="7">
         <v>42</v>
@@ -2666,13 +2654,13 @@
         <v>42665</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2728,7 +2716,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2740,13 +2728,13 @@
         <v>249992</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="H19" s="7">
         <v>255</v>
@@ -2755,13 +2743,13 @@
         <v>265371</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="M19" s="7">
         <v>493</v>
@@ -2770,13 +2758,13 @@
         <v>515362</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2791,13 +2779,13 @@
         <v>23989</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="H20" s="7">
         <v>13</v>
@@ -2806,13 +2794,13 @@
         <v>13687</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="M20" s="7">
         <v>36</v>
@@ -2821,13 +2809,13 @@
         <v>37677</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2883,7 +2871,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2895,13 +2883,13 @@
         <v>590931</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="H22" s="7">
         <v>589</v>
@@ -2910,13 +2898,13 @@
         <v>644070</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>110</v>
+        <v>22</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="M22" s="7">
         <v>1141</v>
@@ -2925,13 +2913,13 @@
         <v>1235001</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2946,13 +2934,13 @@
         <v>67961</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="H23" s="7">
         <v>44</v>
@@ -2961,13 +2949,13 @@
         <v>45042</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>119</v>
+        <v>30</v>
       </c>
       <c r="M23" s="7">
         <v>106</v>
@@ -2976,13 +2964,13 @@
         <v>113003</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>83</v>
+        <v>125</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3038,7 +3026,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3050,13 +3038,13 @@
         <v>607859</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="H25" s="7">
         <v>617</v>
@@ -3065,13 +3053,13 @@
         <v>673265</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M25" s="7">
         <v>1170</v>
@@ -3080,13 +3068,13 @@
         <v>1281123</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3101,13 +3089,13 @@
         <v>166015</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="H26" s="7">
         <v>137</v>
@@ -3116,13 +3104,13 @@
         <v>147554</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="M26" s="7">
         <v>296</v>
@@ -3131,13 +3119,13 @@
         <v>313569</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3205,13 +3193,13 @@
         <v>2903265</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="H28" s="7">
         <v>2938</v>
@@ -3220,13 +3208,13 @@
         <v>3178406</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="M28" s="7">
         <v>5645</v>
@@ -3235,13 +3223,13 @@
         <v>6081670</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>72</v>
+        <v>152</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3256,13 +3244,13 @@
         <v>500113</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="H29" s="7">
         <v>348</v>
@@ -3271,13 +3259,13 @@
         <v>366329</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="M29" s="7">
         <v>827</v>
@@ -3286,13 +3274,13 @@
         <v>866442</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>79</v>
+        <v>162</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3348,7 +3336,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -3372,7 +3360,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BD94935-8DD3-4B7A-9163-1230B7948F31}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D8C9ADF-202D-49AF-B64F-2956866BA21E}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3389,7 +3377,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3496,13 +3484,13 @@
         <v>215537</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="H4" s="7">
         <v>234</v>
@@ -3511,13 +3499,13 @@
         <v>244925</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="M4" s="7">
         <v>431</v>
@@ -3526,13 +3514,13 @@
         <v>460462</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3547,13 +3535,13 @@
         <v>75373</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="H5" s="7">
         <v>42</v>
@@ -3562,13 +3550,13 @@
         <v>42683</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="M5" s="7">
         <v>108</v>
@@ -3577,13 +3565,13 @@
         <v>118056</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3651,13 +3639,13 @@
         <v>429549</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="H7" s="7">
         <v>448</v>
@@ -3666,13 +3654,13 @@
         <v>487071</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="M7" s="7">
         <v>855</v>
@@ -3681,13 +3669,13 @@
         <v>916620</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3702,13 +3690,13 @@
         <v>66416</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="H8" s="7">
         <v>36</v>
@@ -3717,13 +3705,13 @@
         <v>36013</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="M8" s="7">
         <v>99</v>
@@ -3732,13 +3720,13 @@
         <v>102429</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3806,13 +3794,13 @@
         <v>286859</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="H10" s="7">
         <v>307</v>
@@ -3821,13 +3809,13 @@
         <v>312143</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="M10" s="7">
         <v>608</v>
@@ -3836,13 +3824,13 @@
         <v>599001</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3857,13 +3845,13 @@
         <v>31706</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="H11" s="7">
         <v>24</v>
@@ -3872,13 +3860,13 @@
         <v>23247</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="M11" s="7">
         <v>58</v>
@@ -3887,13 +3875,13 @@
         <v>54953</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3961,13 +3949,13 @@
         <v>339249</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>164</v>
+        <v>220</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="H13" s="7">
         <v>331</v>
@@ -3976,13 +3964,13 @@
         <v>360516</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>215</v>
+        <v>117</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="M13" s="7">
         <v>657</v>
@@ -3991,13 +3979,13 @@
         <v>699765</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4012,13 +4000,13 @@
         <v>28758</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>172</v>
+        <v>229</v>
       </c>
       <c r="H14" s="7">
         <v>27</v>
@@ -4027,13 +4015,13 @@
         <v>26767</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>223</v>
+        <v>124</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="M14" s="7">
         <v>53</v>
@@ -4042,13 +4030,13 @@
         <v>55525</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4116,13 +4104,13 @@
         <v>164714</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="H16" s="7">
         <v>197</v>
@@ -4131,13 +4119,13 @@
         <v>194528</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="M16" s="7">
         <v>362</v>
@@ -4146,13 +4134,13 @@
         <v>359242</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4167,13 +4155,13 @@
         <v>46507</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="H17" s="7">
         <v>26</v>
@@ -4182,13 +4170,13 @@
         <v>24059</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="M17" s="7">
         <v>73</v>
@@ -4197,13 +4185,13 @@
         <v>70566</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4259,7 +4247,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4271,28 +4259,28 @@
         <v>223199</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="H19" s="7">
         <v>238</v>
       </c>
       <c r="I19" s="7">
-        <v>249337</v>
+        <v>249336</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="M19" s="7">
         <v>458</v>
@@ -4301,13 +4289,13 @@
         <v>472536</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4322,13 +4310,13 @@
         <v>38889</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="H20" s="7">
         <v>23</v>
@@ -4337,13 +4325,13 @@
         <v>22033</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="M20" s="7">
         <v>61</v>
@@ -4352,13 +4340,13 @@
         <v>60922</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4385,7 +4373,7 @@
         <v>261</v>
       </c>
       <c r="I21" s="7">
-        <v>271370</v>
+        <v>271369</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>32</v>
@@ -4414,7 +4402,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4426,13 +4414,13 @@
         <v>473663</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="H22" s="7">
         <v>507</v>
@@ -4441,13 +4429,13 @@
         <v>548549</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="M22" s="7">
         <v>924</v>
@@ -4456,13 +4444,13 @@
         <v>1022211</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4477,13 +4465,13 @@
         <v>178582</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="H23" s="7">
         <v>135</v>
@@ -4492,13 +4480,13 @@
         <v>138571</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="M23" s="7">
         <v>295</v>
@@ -4507,13 +4495,13 @@
         <v>317153</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4569,7 +4557,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4581,13 +4569,13 @@
         <v>683530</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>146</v>
+        <v>287</v>
       </c>
       <c r="H25" s="7">
         <v>708</v>
@@ -4596,13 +4584,13 @@
         <v>778115</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>284</v>
+        <v>17</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="M25" s="7">
         <v>1367</v>
@@ -4611,13 +4599,13 @@
         <v>1461645</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4632,13 +4620,13 @@
         <v>87180</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>153</v>
+        <v>294</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="H26" s="7">
         <v>45</v>
@@ -4647,13 +4635,13 @@
         <v>46090</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>293</v>
+        <v>26</v>
       </c>
       <c r="M26" s="7">
         <v>130</v>
@@ -4662,13 +4650,13 @@
         <v>133270</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4736,13 +4724,13 @@
         <v>2816300</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="H28" s="7">
         <v>2970</v>
@@ -4751,13 +4739,13 @@
         <v>3175183</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="M28" s="7">
         <v>5662</v>
@@ -4766,13 +4754,13 @@
         <v>5991483</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4787,13 +4775,13 @@
         <v>553411</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="H29" s="7">
         <v>358</v>
@@ -4802,28 +4790,28 @@
         <v>359463</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="M29" s="7">
         <v>877</v>
       </c>
       <c r="N29" s="7">
-        <v>912873</v>
+        <v>912874</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4865,7 +4853,7 @@
         <v>6539</v>
       </c>
       <c r="N30" s="7">
-        <v>6904356</v>
+        <v>6904357</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>32</v>
@@ -4879,7 +4867,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -4903,7 +4891,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8DF6D66-2636-4359-AC17-28CCB85ECA89}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96049D4D-3A37-4485-A120-7CBE44AD5A4B}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4920,7 +4908,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5027,13 +5015,13 @@
         <v>246694</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="H4" s="7">
         <v>529</v>
@@ -5042,13 +5030,13 @@
         <v>266277</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="M4" s="7">
         <v>851</v>
@@ -5057,13 +5045,13 @@
         <v>512970</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5078,13 +5066,13 @@
         <v>13604</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="H5" s="7">
         <v>9</v>
@@ -5093,13 +5081,13 @@
         <v>5126</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="M5" s="7">
         <v>18</v>
@@ -5108,13 +5096,13 @@
         <v>18730</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5182,13 +5170,13 @@
         <v>453479</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="H7" s="7">
         <v>673</v>
@@ -5197,13 +5185,13 @@
         <v>503411</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>58</v>
+        <v>339</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="M7" s="7">
         <v>1024</v>
@@ -5212,13 +5200,13 @@
         <v>956891</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>337</v>
+        <v>254</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5233,13 +5221,13 @@
         <v>65818</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="H8" s="7">
         <v>44</v>
@@ -5248,13 +5236,13 @@
         <v>51155</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>66</v>
+        <v>347</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="M8" s="7">
         <v>75</v>
@@ -5263,13 +5251,13 @@
         <v>116973</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>345</v>
+        <v>260</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5337,13 +5325,13 @@
         <v>301767</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="H10" s="7">
         <v>523</v>
@@ -5352,13 +5340,13 @@
         <v>363212</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="M10" s="7">
         <v>865</v>
@@ -5367,13 +5355,13 @@
         <v>664979</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5388,13 +5376,13 @@
         <v>20473</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="H11" s="7">
         <v>13</v>
@@ -5403,13 +5391,13 @@
         <v>10072</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="M11" s="7">
         <v>31</v>
@@ -5418,13 +5406,13 @@
         <v>30545</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5492,13 +5480,13 @@
         <v>291936</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="H13" s="7">
         <v>577</v>
@@ -5507,13 +5495,13 @@
         <v>389013</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="M13" s="7">
         <v>848</v>
@@ -5522,13 +5510,13 @@
         <v>680949</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5543,13 +5531,13 @@
         <v>30304</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="H14" s="7">
         <v>22</v>
@@ -5558,13 +5546,13 @@
         <v>39543</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="M14" s="7">
         <v>43</v>
@@ -5573,13 +5561,13 @@
         <v>69847</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5647,13 +5635,13 @@
         <v>163239</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="H16" s="7">
         <v>450</v>
@@ -5662,13 +5650,13 @@
         <v>203661</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>387</v>
+        <v>41</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>388</v>
+        <v>371</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>389</v>
+        <v>207</v>
       </c>
       <c r="M16" s="7">
         <v>688</v>
@@ -5677,13 +5665,13 @@
         <v>366899</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>57</v>
+        <v>391</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5698,13 +5686,13 @@
         <v>33509</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="H17" s="7">
         <v>41</v>
@@ -5713,13 +5701,13 @@
         <v>27835</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>395</v>
+        <v>51</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>396</v>
+        <v>216</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>397</v>
+        <v>381</v>
       </c>
       <c r="M17" s="7">
         <v>82</v>
@@ -5728,7 +5716,7 @@
         <v>61345</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>67</v>
+        <v>397</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>398</v>
@@ -5790,7 +5778,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5802,13 +5790,13 @@
         <v>263047</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>214</v>
+        <v>400</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H19" s="7">
         <v>453</v>
@@ -5817,13 +5805,13 @@
         <v>267504</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="M19" s="7">
         <v>808</v>
@@ -5832,13 +5820,13 @@
         <v>530551</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5853,13 +5841,13 @@
         <v>14176</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>222</v>
+        <v>409</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="H20" s="7">
         <v>7</v>
@@ -5868,13 +5856,13 @@
         <v>8118</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="M20" s="7">
         <v>23</v>
@@ -5883,13 +5871,13 @@
         <v>22294</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5945,7 +5933,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5957,13 +5945,13 @@
         <v>531211</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>418</v>
+        <v>56</v>
       </c>
       <c r="H22" s="7">
         <v>885</v>
@@ -5972,13 +5960,13 @@
         <v>743199</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="M22" s="7">
         <v>1411</v>
@@ -5987,10 +5975,10 @@
         <v>1274411</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>423</v>
+        <v>147</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>424</v>
@@ -6011,10 +5999,10 @@
         <v>425</v>
       </c>
       <c r="F23" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>426</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>427</v>
       </c>
       <c r="H23" s="7">
         <v>75</v>
@@ -6023,13 +6011,13 @@
         <v>61004</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>428</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>429</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>430</v>
       </c>
       <c r="M23" s="7">
         <v>148</v>
@@ -6038,13 +6026,13 @@
         <v>157546</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>431</v>
       </c>
-      <c r="P23" s="7" t="s">
-        <v>432</v>
-      </c>
       <c r="Q23" s="7" t="s">
-        <v>433</v>
+        <v>155</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6100,7 +6088,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6112,13 +6100,13 @@
         <v>524598</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>434</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>436</v>
       </c>
       <c r="H25" s="7">
         <v>836</v>
@@ -6127,13 +6115,13 @@
         <v>632768</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>437</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>438</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>439</v>
       </c>
       <c r="M25" s="7">
         <v>1381</v>
@@ -6142,13 +6130,13 @@
         <v>1157366</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>440</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>441</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6163,13 +6151,13 @@
         <v>334830</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>443</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>444</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>445</v>
       </c>
       <c r="H26" s="7">
         <v>226</v>
@@ -6178,13 +6166,13 @@
         <v>235666</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>446</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>447</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>448</v>
       </c>
       <c r="M26" s="7">
         <v>443</v>
@@ -6193,13 +6181,13 @@
         <v>570496</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>449</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>450</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6267,13 +6255,13 @@
         <v>2775971</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>452</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>453</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>454</v>
       </c>
       <c r="H28" s="7">
         <v>4926</v>
@@ -6282,13 +6270,13 @@
         <v>3369045</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>456</v>
+        <v>111</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="M28" s="7">
         <v>7876</v>
@@ -6297,13 +6285,13 @@
         <v>6145016</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6318,13 +6306,13 @@
         <v>609257</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="H29" s="7">
         <v>437</v>
@@ -6333,13 +6321,13 @@
         <v>438519</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>466</v>
+        <v>120</v>
       </c>
       <c r="M29" s="7">
         <v>863</v>
@@ -6348,13 +6336,13 @@
         <v>1047776</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6410,7 +6398,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P38A-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P38A-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0247393E-01BA-43E5-BF96-3237D36C528C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB15DFDD-D4BF-408F-BBEB-45529A8EEA29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{20680A2C-6CE7-4BDB-BFD3-E1A51FEB3C4D}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{EBA66EEA-04C1-4140-BCAE-A08511C91C93}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="479">
   <si>
     <t>Población según si le han tomado la tensión alguna vez un/a profesional sanitario/a en 2012 (Tasa respuesta: 99,46%)</t>
   </si>
@@ -73,12 +73,66 @@
     <t>Sí</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>87,16%</t>
+  </si>
+  <si>
+    <t>83,13%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>87,62%</t>
+  </si>
+  <si>
+    <t>82,91%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>84,33%</t>
+  </si>
+  <si>
+    <t>89,75%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
     <t>Cadiz</t>
   </si>
   <si>
@@ -136,9 +190,6 @@
     <t>12,37%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
     <t>Cordoba</t>
   </si>
   <si>
@@ -199,1243 +250,1231 @@
     <t>Granada</t>
   </si>
   <si>
-    <t>83,35%</t>
-  </si>
-  <si>
-    <t>79,98%</t>
+    <t>80,4%</t>
+  </si>
+  <si>
+    <t>76,06%</t>
+  </si>
+  <si>
+    <t>84,34%</t>
+  </si>
+  <si>
+    <t>88,69%</t>
+  </si>
+  <si>
+    <t>85,42%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>84,63%</t>
+  </si>
+  <si>
+    <t>81,92%</t>
+  </si>
+  <si>
+    <t>87,09%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>86,72%</t>
+  </si>
+  <si>
+    <t>81,65%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>89,22%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>90,04%</t>
+  </si>
+  <si>
+    <t>87,03%</t>
+  </si>
+  <si>
+    <t>93,03%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>86,97%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>89,69%</t>
+  </si>
+  <si>
+    <t>87,01%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>89,94%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>78,55%</t>
+  </si>
+  <si>
+    <t>75,27%</t>
+  </si>
+  <si>
+    <t>81,35%</t>
+  </si>
+  <si>
+    <t>82,02%</t>
+  </si>
+  <si>
+    <t>79,47%</t>
+  </si>
+  <si>
+    <t>85,12%</t>
+  </si>
+  <si>
+    <t>80,34%</t>
+  </si>
+  <si>
+    <t>78,25%</t>
+  </si>
+  <si>
+    <t>82,36%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>85,31%</t>
+  </si>
+  <si>
+    <t>84,02%</t>
+  </si>
+  <si>
+    <t>86,54%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>88,57%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
+  </si>
+  <si>
+    <t>86,67%</t>
+  </si>
+  <si>
+    <t>88,3%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si le han tomado la tensión alguna vez un/a profesional sanitario/a en 2016 (Tasa respuesta: 99,54%)</t>
+  </si>
+  <si>
+    <t>74,09%</t>
+  </si>
+  <si>
+    <t>68,78%</t>
+  </si>
+  <si>
+    <t>79,44%</t>
+  </si>
+  <si>
+    <t>85,16%</t>
+  </si>
+  <si>
+    <t>80,56%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>79,59%</t>
+  </si>
+  <si>
+    <t>76,01%</t>
+  </si>
+  <si>
+    <t>82,92%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>86,61%</t>
+  </si>
+  <si>
+    <t>83,33%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>89,95%</t>
+  </si>
+  <si>
+    <t>87,84%</t>
+  </si>
+  <si>
+    <t>91,69%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>85,76%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>89,97%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>89,45%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>88,79%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>90,38%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>77,98%</t>
+  </si>
+  <si>
+    <t>72,13%</t>
+  </si>
+  <si>
+    <t>83,2%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
+  </si>
+  <si>
+    <t>84,56%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>83,58%</t>
+  </si>
+  <si>
+    <t>79,66%</t>
+  </si>
+  <si>
+    <t>86,7%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>80,09%</t>
+  </si>
+  <si>
+    <t>89,11%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>85,67%</t>
+  </si>
+  <si>
+    <t>91,01%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>72,62%</t>
+  </si>
+  <si>
+    <t>68,71%</t>
+  </si>
+  <si>
+    <t>76,1%</t>
+  </si>
+  <si>
+    <t>79,83%</t>
+  </si>
+  <si>
+    <t>76,83%</t>
+  </si>
+  <si>
+    <t>82,75%</t>
+  </si>
+  <si>
+    <t>76,32%</t>
+  </si>
+  <si>
+    <t>73,81%</t>
+  </si>
+  <si>
+    <t>78,64%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>86,4%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>82,1%</t>
+  </si>
+  <si>
+    <t>84,92%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>88,75%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>86,78%</t>
+  </si>
+  <si>
+    <t>85,91%</t>
+  </si>
+  <si>
+    <t>87,51%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>Población según si le han tomado la tensión alguna vez un/a profesional sanitario/a en 2023 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>85,98%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>80,99%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>87,59%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>88,61%</t>
+  </si>
+  <si>
+    <t>85,47%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>88,43%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>89,78%</t>
+  </si>
+  <si>
+    <t>80,87%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>80,66%</t>
+  </si>
+  <si>
+    <t>50,55%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>84,27%</t>
+  </si>
+  <si>
+    <t>63,48%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>49,45%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>36,52%</t>
+  </si>
+  <si>
+    <t>83,06%</t>
+  </si>
+  <si>
+    <t>76,73%</t>
+  </si>
+  <si>
+    <t>87,75%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>83,97%</t>
   </si>
   <si>
     <t>86,02%</t>
   </si>
   <si>
+    <t>82,28%</t>
+  </si>
+  <si>
+    <t>89,09%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>83,45%</t>
+  </si>
+  <si>
+    <t>78,19%</t>
+  </si>
+  <si>
+    <t>87,55%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>90,11%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>48,08%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>66,05%</t>
+  </si>
+  <si>
+    <t>73,83%</t>
+  </si>
+  <si>
+    <t>70,55%</t>
+  </si>
+  <si>
+    <t>76,86%</t>
+  </si>
+  <si>
+    <t>59,31%</t>
+  </si>
+  <si>
+    <t>36,62%</t>
+  </si>
+  <si>
+    <t>70,59%</t>
+  </si>
+  <si>
+    <t>51,92%</t>
+  </si>
+  <si>
+    <t>33,95%</t>
+  </si>
+  <si>
+    <t>77,42%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>29,45%</t>
+  </si>
+  <si>
+    <t>40,69%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>63,38%</t>
+  </si>
+  <si>
+    <t>77,65%</t>
+  </si>
+  <si>
+    <t>59,75%</t>
+  </si>
+  <si>
+    <t>84,06%</t>
+  </si>
+  <si>
     <t>88,23%</t>
   </si>
   <si>
-    <t>85,71%</t>
-  </si>
-  <si>
-    <t>90,36%</t>
-  </si>
-  <si>
-    <t>85,82%</t>
-  </si>
-  <si>
-    <t>83,72%</t>
-  </si>
-  <si>
-    <t>87,69%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>83,09%</t>
+  </si>
+  <si>
+    <t>73,0%</t>
+  </si>
+  <si>
+    <t>86,79%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>40,25%</t>
   </si>
   <si>
     <t>11,77%</t>
   </si>
   <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>86,72%</t>
-  </si>
-  <si>
-    <t>81,65%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>89,22%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
-  </si>
-  <si>
-    <t>87,03%</t>
-  </si>
-  <si>
-    <t>93,03%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>86,97%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>89,69%</t>
-  </si>
-  <si>
-    <t>87,01%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>89,94%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>78,55%</t>
-  </si>
-  <si>
-    <t>75,27%</t>
-  </si>
-  <si>
-    <t>81,35%</t>
-  </si>
-  <si>
-    <t>82,02%</t>
-  </si>
-  <si>
-    <t>79,47%</t>
-  </si>
-  <si>
-    <t>85,12%</t>
-  </si>
-  <si>
-    <t>80,34%</t>
-  </si>
-  <si>
-    <t>78,25%</t>
-  </si>
-  <si>
-    <t>82,36%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>85,31%</t>
-  </si>
-  <si>
-    <t>84,02%</t>
-  </si>
-  <si>
-    <t>86,54%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
-  </si>
-  <si>
-    <t>88,57%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>86,67%</t>
-  </si>
-  <si>
-    <t>88,3%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si le han tomado la tensión alguna vez un/a profesional sanitario/a en 2016 (Tasa respuesta: 99,54%)</t>
-  </si>
-  <si>
-    <t>74,09%</t>
-  </si>
-  <si>
-    <t>68,78%</t>
-  </si>
-  <si>
-    <t>79,44%</t>
-  </si>
-  <si>
-    <t>85,16%</t>
-  </si>
-  <si>
-    <t>80,56%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>79,59%</t>
-  </si>
-  <si>
-    <t>76,01%</t>
-  </si>
-  <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>86,61%</t>
-  </si>
-  <si>
-    <t>83,33%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>89,95%</t>
-  </si>
-  <si>
-    <t>87,84%</t>
-  </si>
-  <si>
-    <t>91,69%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>85,76%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>89,97%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>89,45%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>90,38%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>77,98%</t>
-  </si>
-  <si>
-    <t>72,13%</t>
-  </si>
-  <si>
-    <t>83,2%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>84,56%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>83,58%</t>
-  </si>
-  <si>
-    <t>79,66%</t>
-  </si>
-  <si>
-    <t>86,7%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>80,09%</t>
-  </si>
-  <si>
-    <t>89,11%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>85,67%</t>
-  </si>
-  <si>
-    <t>91,01%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>72,62%</t>
-  </si>
-  <si>
-    <t>68,71%</t>
-  </si>
-  <si>
-    <t>76,1%</t>
-  </si>
-  <si>
-    <t>79,83%</t>
-  </si>
-  <si>
-    <t>76,83%</t>
-  </si>
-  <si>
-    <t>82,75%</t>
-  </si>
-  <si>
-    <t>76,32%</t>
-  </si>
-  <si>
-    <t>73,81%</t>
-  </si>
-  <si>
-    <t>78,64%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>88,69%</t>
-  </si>
-  <si>
-    <t>86,4%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>90,2%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>82,1%</t>
-  </si>
-  <si>
-    <t>84,92%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>88,75%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>86,78%</t>
-  </si>
-  <si>
-    <t>85,91%</t>
-  </si>
-  <si>
-    <t>87,51%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>Población según si le han tomado la tensión alguna vez un/a profesional sanitario/a en 2023 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>89,36%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>87,33%</t>
-  </si>
-  <si>
-    <t>82,21%</t>
-  </si>
-  <si>
-    <t>91,2%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>87,55%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>86,14%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>88,95%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>82,86%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>78,81%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>83,93%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>82,97%</t>
-  </si>
-  <si>
-    <t>76,58%</t>
-  </si>
-  <si>
-    <t>87,74%</t>
-  </si>
-  <si>
-    <t>85,68%</t>
-  </si>
-  <si>
-    <t>81,74%</t>
-  </si>
-  <si>
-    <t>88,92%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>84,62%</t>
-  </si>
-  <si>
-    <t>80,1%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>89,78%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>61,04%</t>
-  </si>
-  <si>
-    <t>47,91%</t>
-  </si>
-  <si>
-    <t>66,03%</t>
-  </si>
-  <si>
-    <t>72,86%</t>
-  </si>
-  <si>
-    <t>69,45%</t>
-  </si>
-  <si>
-    <t>76,07%</t>
-  </si>
-  <si>
-    <t>66,98%</t>
-  </si>
-  <si>
-    <t>59,44%</t>
-  </si>
-  <si>
-    <t>70,32%</t>
-  </si>
-  <si>
-    <t>38,96%</t>
-  </si>
-  <si>
-    <t>33,97%</t>
-  </si>
-  <si>
-    <t>52,09%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>33,02%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>40,56%</t>
-  </si>
-  <si>
-    <t>82,0%</t>
-  </si>
-  <si>
-    <t>77,45%</t>
-  </si>
-  <si>
-    <t>83,92%</t>
-  </si>
-  <si>
-    <t>88,48%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
-  </si>
-  <si>
-    <t>85,43%</t>
-  </si>
-  <si>
-    <t>83,45%</t>
-  </si>
-  <si>
-    <t>86,69%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
   </si>
 </sst>
 </file>
@@ -1847,7 +1886,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA7FB369-F5F3-4393-A867-67B1AC83E95C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0195F367-09F0-46CC-8CF8-548C9C23B794}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1965,88 +2004,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>239</v>
+      </c>
+      <c r="D4" s="7">
+        <v>251378</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>223</v>
+      </c>
+      <c r="I4" s="7">
+        <v>251688</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>462</v>
+      </c>
+      <c r="N4" s="7">
+        <v>503066</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>37</v>
+      </c>
+      <c r="D5" s="7">
+        <v>37029</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>33</v>
+      </c>
+      <c r="I5" s="7">
+        <v>35557</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>70</v>
+      </c>
+      <c r="N5" s="7">
+        <v>72586</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2055,48 +2106,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>276</v>
+      </c>
+      <c r="D6" s="7">
+        <v>288407</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>256</v>
+      </c>
+      <c r="I6" s="7">
+        <v>287245</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>532</v>
+      </c>
+      <c r="N6" s="7">
+        <v>575652</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -2108,13 +2165,13 @@
         <v>434792</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
         <v>441</v>
@@ -2123,13 +2180,13 @@
         <v>482624</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>845</v>
@@ -2138,19 +2195,19 @@
         <v>917416</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
         <v>64</v>
@@ -2159,13 +2216,13 @@
         <v>66820</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>38</v>
@@ -2174,13 +2231,13 @@
         <v>40132</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>102</v>
@@ -2189,13 +2246,13 @@
         <v>106952</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2210,13 +2267,13 @@
         <v>501612</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
         <v>479</v>
@@ -2225,13 +2282,13 @@
         <v>522756</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
         <v>947</v>
@@ -2240,18 +2297,18 @@
         <v>1024368</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2263,13 +2320,13 @@
         <v>284991</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>292</v>
@@ -2278,13 +2335,13 @@
         <v>315102</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>571</v>
@@ -2293,19 +2350,19 @@
         <v>600094</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>38</v>
@@ -2314,13 +2371,13 @@
         <v>37128</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>25</v>
@@ -2329,13 +2386,13 @@
         <v>25918</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>63</v>
@@ -2344,13 +2401,13 @@
         <v>63045</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2365,13 +2422,13 @@
         <v>322119</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
         <v>317</v>
@@ -2380,13 +2437,13 @@
         <v>341020</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
         <v>634</v>
@@ -2395,117 +2452,117 @@
         <v>663139</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>513</v>
+        <v>274</v>
       </c>
       <c r="D13" s="7">
-        <v>551140</v>
+        <v>299761</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>550</v>
+        <v>327</v>
       </c>
       <c r="I13" s="7">
-        <v>595757</v>
+        <v>344070</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>1063</v>
+        <v>601</v>
       </c>
       <c r="N13" s="7">
-        <v>1146897</v>
+        <v>643831</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>106</v>
+        <v>69</v>
       </c>
       <c r="D14" s="7">
-        <v>110082</v>
+        <v>73053</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="I14" s="7">
-        <v>79450</v>
+        <v>43892</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>182</v>
+        <v>112</v>
       </c>
       <c r="N14" s="7">
-        <v>189532</v>
+        <v>116946</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2514,54 +2571,54 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>619</v>
+        <v>343</v>
       </c>
       <c r="D15" s="7">
-        <v>661222</v>
+        <v>372814</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>626</v>
+        <v>370</v>
       </c>
       <c r="I15" s="7">
-        <v>675207</v>
+        <v>387962</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1245</v>
+        <v>713</v>
       </c>
       <c r="N15" s="7">
-        <v>1336429</v>
+        <v>760777</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2573,13 +2630,13 @@
         <v>183559</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>194</v>
@@ -2588,13 +2645,13 @@
         <v>202216</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>362</v>
@@ -2603,19 +2660,19 @@
         <v>385776</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
         <v>27</v>
@@ -2624,13 +2681,13 @@
         <v>28119</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>15</v>
@@ -2639,13 +2696,13 @@
         <v>14546</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>42</v>
@@ -2654,13 +2711,13 @@
         <v>42665</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2675,13 +2732,13 @@
         <v>211678</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
         <v>209</v>
@@ -2690,13 +2747,13 @@
         <v>216762</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
         <v>404</v>
@@ -2705,18 +2762,18 @@
         <v>428441</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2728,13 +2785,13 @@
         <v>249992</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>255</v>
@@ -2743,13 +2800,13 @@
         <v>265371</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>493</v>
@@ -2758,19 +2815,19 @@
         <v>515362</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
         <v>23</v>
@@ -2779,13 +2836,13 @@
         <v>23989</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>13</v>
@@ -2794,13 +2851,13 @@
         <v>13687</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>36</v>
@@ -2809,13 +2866,13 @@
         <v>37677</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2830,13 +2887,13 @@
         <v>273981</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H21" s="7">
         <v>268</v>
@@ -2845,13 +2902,13 @@
         <v>279058</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M21" s="7">
         <v>529</v>
@@ -2860,18 +2917,18 @@
         <v>553039</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2883,13 +2940,13 @@
         <v>590931</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="H22" s="7">
         <v>589</v>
@@ -2898,13 +2955,13 @@
         <v>644070</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="M22" s="7">
         <v>1141</v>
@@ -2913,19 +2970,19 @@
         <v>1235001</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
         <v>62</v>
@@ -2934,13 +2991,13 @@
         <v>67961</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="H23" s="7">
         <v>44</v>
@@ -2949,13 +3006,13 @@
         <v>45042</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="M23" s="7">
         <v>106</v>
@@ -2964,13 +3021,13 @@
         <v>113003</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2985,13 +3042,13 @@
         <v>658892</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H24" s="7">
         <v>633</v>
@@ -3000,13 +3057,13 @@
         <v>689112</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M24" s="7">
         <v>1247</v>
@@ -3015,18 +3072,18 @@
         <v>1348004</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3038,13 +3095,13 @@
         <v>607859</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="H25" s="7">
         <v>617</v>
@@ -3053,34 +3110,34 @@
         <v>673265</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="M25" s="7">
         <v>1170</v>
       </c>
       <c r="N25" s="7">
-        <v>1281123</v>
+        <v>1281124</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C26" s="7">
         <v>159</v>
@@ -3089,13 +3146,13 @@
         <v>166015</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="H26" s="7">
         <v>137</v>
@@ -3104,13 +3161,13 @@
         <v>147554</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="M26" s="7">
         <v>296</v>
@@ -3119,13 +3176,13 @@
         <v>313569</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3140,13 +3197,13 @@
         <v>773874</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H27" s="7">
         <v>754</v>
@@ -3155,28 +3212,28 @@
         <v>820819</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M27" s="7">
         <v>1466</v>
       </c>
       <c r="N27" s="7">
-        <v>1594692</v>
+        <v>1594693</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3193,13 +3250,13 @@
         <v>2903265</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="H28" s="7">
         <v>2938</v>
@@ -3208,34 +3265,34 @@
         <v>3178406</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="M28" s="7">
         <v>5645</v>
       </c>
       <c r="N28" s="7">
-        <v>6081670</v>
+        <v>6081671</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C29" s="7">
         <v>479</v>
@@ -3244,13 +3301,13 @@
         <v>500113</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="H29" s="7">
         <v>348</v>
@@ -3259,13 +3316,13 @@
         <v>366329</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="M29" s="7">
         <v>827</v>
@@ -3274,13 +3331,13 @@
         <v>866442</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3295,13 +3352,13 @@
         <v>3403378</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H30" s="7">
         <v>3286</v>
@@ -3310,33 +3367,33 @@
         <v>3544735</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M30" s="7">
         <v>6472</v>
       </c>
       <c r="N30" s="7">
-        <v>6948112</v>
+        <v>6948113</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -3360,7 +3417,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D8C9ADF-202D-49AF-B64F-2956866BA21E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC8349EA-366B-4B6D-BA36-231343F12C11}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3377,7 +3434,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3484,13 +3541,13 @@
         <v>215537</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="H4" s="7">
         <v>234</v>
@@ -3499,13 +3556,13 @@
         <v>244925</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="M4" s="7">
         <v>431</v>
@@ -3514,19 +3571,19 @@
         <v>460462</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>66</v>
@@ -3535,13 +3592,13 @@
         <v>75373</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="H5" s="7">
         <v>42</v>
@@ -3550,13 +3607,13 @@
         <v>42683</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="M5" s="7">
         <v>108</v>
@@ -3565,13 +3622,13 @@
         <v>118056</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3586,13 +3643,13 @@
         <v>290910</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
         <v>276</v>
@@ -3601,13 +3658,13 @@
         <v>287608</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
         <v>539</v>
@@ -3616,18 +3673,18 @@
         <v>578518</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -3639,13 +3696,13 @@
         <v>429549</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="H7" s="7">
         <v>448</v>
@@ -3654,13 +3711,13 @@
         <v>487071</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="M7" s="7">
         <v>855</v>
@@ -3669,19 +3726,19 @@
         <v>916620</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
         <v>63</v>
@@ -3690,13 +3747,13 @@
         <v>66416</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="H8" s="7">
         <v>36</v>
@@ -3705,13 +3762,13 @@
         <v>36013</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="M8" s="7">
         <v>99</v>
@@ -3720,13 +3777,13 @@
         <v>102429</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3741,13 +3798,13 @@
         <v>495965</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
         <v>484</v>
@@ -3756,13 +3813,13 @@
         <v>523084</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
         <v>954</v>
@@ -3771,18 +3828,18 @@
         <v>1019049</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3794,13 +3851,13 @@
         <v>286859</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="H10" s="7">
         <v>307</v>
@@ -3809,13 +3866,13 @@
         <v>312143</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="M10" s="7">
         <v>608</v>
@@ -3824,19 +3881,19 @@
         <v>599001</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>34</v>
@@ -3845,13 +3902,13 @@
         <v>31706</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="H11" s="7">
         <v>24</v>
@@ -3860,13 +3917,13 @@
         <v>23247</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="M11" s="7">
         <v>58</v>
@@ -3875,13 +3932,13 @@
         <v>54953</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3896,13 +3953,13 @@
         <v>318565</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
         <v>331</v>
@@ -3911,13 +3968,13 @@
         <v>335390</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
         <v>666</v>
@@ -3926,18 +3983,18 @@
         <v>653954</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3949,13 +4006,13 @@
         <v>339249</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="H13" s="7">
         <v>331</v>
@@ -3964,13 +4021,13 @@
         <v>360516</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="M13" s="7">
         <v>657</v>
@@ -3979,19 +4036,19 @@
         <v>699765</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
         <v>26</v>
@@ -4000,13 +4057,13 @@
         <v>28758</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>227</v>
+        <v>244</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>228</v>
+        <v>245</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="H14" s="7">
         <v>27</v>
@@ -4015,13 +4072,13 @@
         <v>26767</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="M14" s="7">
         <v>53</v>
@@ -4030,13 +4087,13 @@
         <v>55525</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>234</v>
+        <v>251</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4051,13 +4108,13 @@
         <v>368007</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
         <v>358</v>
@@ -4066,13 +4123,13 @@
         <v>387283</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
         <v>710</v>
@@ -4081,18 +4138,18 @@
         <v>755290</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4104,13 +4161,13 @@
         <v>164714</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="H16" s="7">
         <v>197</v>
@@ -4119,13 +4176,13 @@
         <v>194528</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="M16" s="7">
         <v>362</v>
@@ -4134,19 +4191,19 @@
         <v>359242</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
         <v>47</v>
@@ -4155,13 +4212,13 @@
         <v>46507</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>246</v>
+        <v>263</v>
       </c>
       <c r="H17" s="7">
         <v>26</v>
@@ -4170,13 +4227,13 @@
         <v>24059</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>247</v>
+        <v>264</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>248</v>
+        <v>265</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>249</v>
+        <v>266</v>
       </c>
       <c r="M17" s="7">
         <v>73</v>
@@ -4185,13 +4242,13 @@
         <v>70566</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>251</v>
+        <v>268</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4206,13 +4263,13 @@
         <v>211221</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
         <v>223</v>
@@ -4221,13 +4278,13 @@
         <v>218587</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
         <v>435</v>
@@ -4236,18 +4293,18 @@
         <v>429808</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4259,13 +4316,13 @@
         <v>223199</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="H19" s="7">
         <v>238</v>
@@ -4274,13 +4331,13 @@
         <v>249336</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>256</v>
+        <v>273</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>257</v>
+        <v>274</v>
       </c>
       <c r="M19" s="7">
         <v>458</v>
@@ -4289,19 +4346,19 @@
         <v>472536</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>256</v>
+        <v>273</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
         <v>38</v>
@@ -4310,13 +4367,13 @@
         <v>38889</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>261</v>
+        <v>278</v>
       </c>
       <c r="H20" s="7">
         <v>23</v>
@@ -4325,13 +4382,13 @@
         <v>22033</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>262</v>
+        <v>279</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>263</v>
+        <v>280</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>264</v>
+        <v>281</v>
       </c>
       <c r="M20" s="7">
         <v>61</v>
@@ -4340,13 +4397,13 @@
         <v>60922</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>264</v>
+        <v>281</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>265</v>
+        <v>282</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>266</v>
+        <v>283</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4361,13 +4418,13 @@
         <v>262088</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H21" s="7">
         <v>261</v>
@@ -4376,13 +4433,13 @@
         <v>271369</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M21" s="7">
         <v>519</v>
@@ -4391,18 +4448,18 @@
         <v>533458</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4414,13 +4471,13 @@
         <v>473663</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>267</v>
+        <v>284</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>269</v>
+        <v>286</v>
       </c>
       <c r="H22" s="7">
         <v>507</v>
@@ -4429,13 +4486,13 @@
         <v>548549</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>270</v>
+        <v>287</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>271</v>
+        <v>288</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="M22" s="7">
         <v>924</v>
@@ -4444,19 +4501,19 @@
         <v>1022211</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>273</v>
+        <v>290</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>274</v>
+        <v>291</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
         <v>160</v>
@@ -4465,13 +4522,13 @@
         <v>178582</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>276</v>
+        <v>293</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>277</v>
+        <v>294</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>278</v>
+        <v>295</v>
       </c>
       <c r="H23" s="7">
         <v>135</v>
@@ -4480,13 +4537,13 @@
         <v>138571</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>279</v>
+        <v>296</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>281</v>
+        <v>298</v>
       </c>
       <c r="M23" s="7">
         <v>295</v>
@@ -4495,13 +4552,13 @@
         <v>317153</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>282</v>
+        <v>299</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>283</v>
+        <v>300</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>284</v>
+        <v>301</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4516,13 +4573,13 @@
         <v>652245</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H24" s="7">
         <v>642</v>
@@ -4531,13 +4588,13 @@
         <v>687120</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M24" s="7">
         <v>1219</v>
@@ -4546,18 +4603,18 @@
         <v>1339364</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4569,13 +4626,13 @@
         <v>683530</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>285</v>
+        <v>73</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>286</v>
+        <v>302</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>287</v>
+        <v>303</v>
       </c>
       <c r="H25" s="7">
         <v>708</v>
@@ -4584,13 +4641,13 @@
         <v>778115</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>288</v>
+        <v>304</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>289</v>
+        <v>305</v>
       </c>
       <c r="M25" s="7">
         <v>1367</v>
@@ -4599,19 +4656,19 @@
         <v>1461645</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>291</v>
+        <v>307</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>292</v>
+        <v>308</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C26" s="7">
         <v>85</v>
@@ -4620,13 +4677,13 @@
         <v>87180</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>293</v>
+        <v>82</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>294</v>
+        <v>309</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>295</v>
+        <v>310</v>
       </c>
       <c r="H26" s="7">
         <v>45</v>
@@ -4635,13 +4692,13 @@
         <v>46090</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>296</v>
+        <v>311</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>297</v>
+        <v>312</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="M26" s="7">
         <v>130</v>
@@ -4650,13 +4707,13 @@
         <v>133270</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>298</v>
+        <v>313</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>300</v>
+        <v>315</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4671,13 +4728,13 @@
         <v>770710</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H27" s="7">
         <v>753</v>
@@ -4686,13 +4743,13 @@
         <v>824205</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M27" s="7">
         <v>1497</v>
@@ -4701,13 +4758,13 @@
         <v>1594915</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4724,13 +4781,13 @@
         <v>2816300</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>301</v>
+        <v>316</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>302</v>
+        <v>317</v>
       </c>
       <c r="H28" s="7">
         <v>2970</v>
@@ -4739,13 +4796,13 @@
         <v>3175183</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>303</v>
+        <v>318</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>304</v>
+        <v>319</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>305</v>
+        <v>320</v>
       </c>
       <c r="M28" s="7">
         <v>5662</v>
@@ -4754,19 +4811,19 @@
         <v>5991483</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>306</v>
+        <v>321</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>307</v>
+        <v>322</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>308</v>
+        <v>323</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C29" s="7">
         <v>519</v>
@@ -4775,13 +4832,13 @@
         <v>553411</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>309</v>
+        <v>324</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>310</v>
+        <v>325</v>
       </c>
       <c r="H29" s="7">
         <v>358</v>
@@ -4790,13 +4847,13 @@
         <v>359463</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>311</v>
+        <v>326</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>312</v>
+        <v>327</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
       <c r="M29" s="7">
         <v>877</v>
@@ -4805,13 +4862,13 @@
         <v>912874</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>314</v>
+        <v>329</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>315</v>
+        <v>330</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>316</v>
+        <v>331</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4826,13 +4883,13 @@
         <v>3369711</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H30" s="7">
         <v>3328</v>
@@ -4841,13 +4898,13 @@
         <v>3534646</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M30" s="7">
         <v>6539</v>
@@ -4856,18 +4913,18 @@
         <v>6904357</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -4891,7 +4948,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96049D4D-3A37-4485-A120-7CBE44AD5A4B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FDEE40E-CD30-44D7-9402-4A10EE46B93D}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4908,7 +4965,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>317</v>
+        <v>332</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5012,97 +5069,97 @@
         <v>322</v>
       </c>
       <c r="D4" s="7">
-        <v>246694</v>
+        <v>291379</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>318</v>
+        <v>333</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>319</v>
+        <v>334</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>320</v>
+        <v>335</v>
       </c>
       <c r="H4" s="7">
         <v>529</v>
       </c>
       <c r="I4" s="7">
-        <v>266277</v>
+        <v>284093</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>321</v>
+        <v>336</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>322</v>
+        <v>337</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>323</v>
+        <v>338</v>
       </c>
       <c r="M4" s="7">
         <v>851</v>
       </c>
       <c r="N4" s="7">
-        <v>512970</v>
+        <v>575471</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>324</v>
+        <v>339</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>325</v>
+        <v>224</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>326</v>
+        <v>340</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>9</v>
       </c>
       <c r="D5" s="7">
-        <v>13604</v>
+        <v>20064</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>327</v>
+        <v>341</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>328</v>
+        <v>342</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>329</v>
+        <v>343</v>
       </c>
       <c r="H5" s="7">
         <v>9</v>
       </c>
       <c r="I5" s="7">
-        <v>5126</v>
+        <v>5542</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>330</v>
+        <v>344</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>331</v>
+        <v>345</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>332</v>
+        <v>346</v>
       </c>
       <c r="M5" s="7">
         <v>18</v>
       </c>
       <c r="N5" s="7">
-        <v>18730</v>
+        <v>25606</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>333</v>
+        <v>347</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>334</v>
+        <v>348</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>335</v>
+        <v>233</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5114,51 +5171,51 @@
         <v>331</v>
       </c>
       <c r="D6" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
         <v>538</v>
       </c>
       <c r="I6" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
         <v>869</v>
       </c>
       <c r="N6" s="7">
-        <v>531700</v>
+        <v>601077</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -5167,97 +5224,97 @@
         <v>351</v>
       </c>
       <c r="D7" s="7">
-        <v>453479</v>
+        <v>448209</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>336</v>
+        <v>349</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>337</v>
+        <v>350</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>338</v>
+        <v>351</v>
       </c>
       <c r="H7" s="7">
         <v>673</v>
       </c>
       <c r="I7" s="7">
-        <v>503411</v>
+        <v>467468</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>339</v>
+        <v>13</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
       <c r="M7" s="7">
         <v>1024</v>
       </c>
       <c r="N7" s="7">
-        <v>956891</v>
+        <v>915677</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>254</v>
+        <v>354</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>343</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
         <v>31</v>
       </c>
       <c r="D8" s="7">
-        <v>65818</v>
+        <v>70181</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="H8" s="7">
         <v>44</v>
       </c>
       <c r="I8" s="7">
-        <v>51155</v>
+        <v>47501</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>347</v>
+        <v>22</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>348</v>
+        <v>359</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>349</v>
+        <v>360</v>
       </c>
       <c r="M8" s="7">
         <v>75</v>
       </c>
       <c r="N8" s="7">
-        <v>116973</v>
+        <v>117682</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>260</v>
+        <v>361</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>350</v>
+        <v>99</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>351</v>
+        <v>362</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5269,51 +5326,51 @@
         <v>382</v>
       </c>
       <c r="D9" s="7">
-        <v>519297</v>
+        <v>518390</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
         <v>717</v>
       </c>
       <c r="I9" s="7">
-        <v>554566</v>
+        <v>514969</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
         <v>1099</v>
       </c>
       <c r="N9" s="7">
-        <v>1073864</v>
+        <v>1033359</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5322,97 +5379,97 @@
         <v>342</v>
       </c>
       <c r="D10" s="7">
-        <v>301767</v>
+        <v>295106</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>353</v>
+        <v>364</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>354</v>
+        <v>365</v>
       </c>
       <c r="H10" s="7">
         <v>523</v>
       </c>
       <c r="I10" s="7">
-        <v>363212</v>
+        <v>339668</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>355</v>
+        <v>366</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>356</v>
+        <v>367</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>357</v>
+        <v>368</v>
       </c>
       <c r="M10" s="7">
         <v>865</v>
       </c>
       <c r="N10" s="7">
-        <v>664979</v>
+        <v>634775</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>359</v>
+        <v>370</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>360</v>
+        <v>371</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>18</v>
       </c>
       <c r="D11" s="7">
-        <v>20473</v>
+        <v>20944</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>361</v>
+        <v>372</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="H11" s="7">
         <v>13</v>
       </c>
       <c r="I11" s="7">
-        <v>10072</v>
+        <v>9460</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>365</v>
+        <v>376</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>366</v>
+        <v>377</v>
       </c>
       <c r="M11" s="7">
         <v>31</v>
       </c>
       <c r="N11" s="7">
-        <v>30545</v>
+        <v>30403</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>368</v>
+        <v>379</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>369</v>
+        <v>380</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5424,51 +5481,51 @@
         <v>360</v>
       </c>
       <c r="D12" s="7">
-        <v>322240</v>
+        <v>316050</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
         <v>536</v>
       </c>
       <c r="I12" s="7">
-        <v>373284</v>
+        <v>349128</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
         <v>896</v>
       </c>
       <c r="N12" s="7">
-        <v>695524</v>
+        <v>665178</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5477,97 +5534,97 @@
         <v>271</v>
       </c>
       <c r="D13" s="7">
-        <v>291936</v>
+        <v>280605</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>370</v>
+        <v>381</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>371</v>
+        <v>382</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="H13" s="7">
         <v>577</v>
       </c>
       <c r="I13" s="7">
-        <v>389013</v>
+        <v>383711</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>373</v>
+        <v>384</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>374</v>
+        <v>385</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>375</v>
+        <v>386</v>
       </c>
       <c r="M13" s="7">
         <v>848</v>
       </c>
       <c r="N13" s="7">
-        <v>680949</v>
+        <v>664315</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
         <v>21</v>
       </c>
       <c r="D14" s="7">
-        <v>30304</v>
+        <v>31952</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>380</v>
+        <v>391</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>381</v>
+        <v>392</v>
       </c>
       <c r="H14" s="7">
         <v>22</v>
       </c>
       <c r="I14" s="7">
-        <v>39543</v>
+        <v>92007</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>382</v>
+        <v>393</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>384</v>
+        <v>395</v>
       </c>
       <c r="M14" s="7">
         <v>43</v>
       </c>
       <c r="N14" s="7">
-        <v>69847</v>
+        <v>123959</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>386</v>
+        <v>397</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>387</v>
+        <v>398</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5579,51 +5636,51 @@
         <v>292</v>
       </c>
       <c r="D15" s="7">
-        <v>322240</v>
+        <v>312557</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
         <v>599</v>
       </c>
       <c r="I15" s="7">
-        <v>428556</v>
+        <v>475718</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
         <v>891</v>
       </c>
       <c r="N15" s="7">
-        <v>750796</v>
+        <v>788274</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5632,97 +5689,97 @@
         <v>238</v>
       </c>
       <c r="D16" s="7">
-        <v>163239</v>
+        <v>148457</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>388</v>
+        <v>399</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="H16" s="7">
         <v>450</v>
       </c>
       <c r="I16" s="7">
-        <v>203661</v>
+        <v>184456</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>41</v>
+        <v>402</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>371</v>
+        <v>403</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>207</v>
+        <v>272</v>
       </c>
       <c r="M16" s="7">
         <v>688</v>
       </c>
       <c r="N16" s="7">
-        <v>366899</v>
+        <v>332913</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>391</v>
+        <v>404</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>392</v>
+        <v>405</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>393</v>
+        <v>406</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
         <v>41</v>
       </c>
       <c r="D17" s="7">
-        <v>33509</v>
+        <v>30285</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>394</v>
+        <v>407</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>396</v>
+        <v>409</v>
       </c>
       <c r="H17" s="7">
         <v>41</v>
       </c>
       <c r="I17" s="7">
-        <v>27835</v>
+        <v>23818</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>51</v>
+        <v>410</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>216</v>
+        <v>279</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>381</v>
+        <v>411</v>
       </c>
       <c r="M17" s="7">
         <v>82</v>
       </c>
       <c r="N17" s="7">
-        <v>61345</v>
+        <v>54103</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>397</v>
+        <v>412</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>398</v>
+        <v>413</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>399</v>
+        <v>414</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5734,51 +5791,51 @@
         <v>279</v>
       </c>
       <c r="D18" s="7">
-        <v>196748</v>
+        <v>178742</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
         <v>491</v>
       </c>
       <c r="I18" s="7">
-        <v>231496</v>
+        <v>208274</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
         <v>770</v>
       </c>
       <c r="N18" s="7">
-        <v>428244</v>
+        <v>387016</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5787,97 +5844,97 @@
         <v>355</v>
       </c>
       <c r="D19" s="7">
-        <v>263047</v>
+        <v>255275</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>400</v>
+        <v>415</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>401</v>
+        <v>239</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>402</v>
+        <v>416</v>
       </c>
       <c r="H19" s="7">
         <v>453</v>
       </c>
       <c r="I19" s="7">
-        <v>267504</v>
+        <v>249495</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>403</v>
+        <v>417</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>404</v>
+        <v>418</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>405</v>
+        <v>419</v>
       </c>
       <c r="M19" s="7">
         <v>808</v>
       </c>
       <c r="N19" s="7">
-        <v>530551</v>
+        <v>504770</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>406</v>
+        <v>420</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>407</v>
+        <v>421</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>408</v>
+        <v>422</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
         <v>16</v>
       </c>
       <c r="D20" s="7">
-        <v>14176</v>
+        <v>14361</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>409</v>
+        <v>423</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>410</v>
+        <v>424</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>411</v>
+        <v>248</v>
       </c>
       <c r="H20" s="7">
         <v>7</v>
       </c>
       <c r="I20" s="7">
-        <v>8118</v>
+        <v>7561</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>412</v>
+        <v>425</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>413</v>
+        <v>426</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>414</v>
+        <v>427</v>
       </c>
       <c r="M20" s="7">
         <v>23</v>
       </c>
       <c r="N20" s="7">
-        <v>22294</v>
+        <v>21922</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>415</v>
+        <v>428</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>416</v>
+        <v>429</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>417</v>
+        <v>430</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5889,51 +5946,51 @@
         <v>371</v>
       </c>
       <c r="D21" s="7">
-        <v>277223</v>
+        <v>269636</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H21" s="7">
         <v>460</v>
       </c>
       <c r="I21" s="7">
-        <v>275622</v>
+        <v>257056</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M21" s="7">
         <v>831</v>
       </c>
       <c r="N21" s="7">
-        <v>552845</v>
+        <v>526692</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5942,97 +5999,97 @@
         <v>526</v>
       </c>
       <c r="D22" s="7">
-        <v>531211</v>
+        <v>520968</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>418</v>
+        <v>431</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>419</v>
+        <v>432</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>56</v>
+        <v>433</v>
       </c>
       <c r="H22" s="7">
         <v>885</v>
       </c>
       <c r="I22" s="7">
-        <v>743199</v>
+        <v>792160</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>420</v>
+        <v>434</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>421</v>
+        <v>435</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>422</v>
+        <v>436</v>
       </c>
       <c r="M22" s="7">
         <v>1411</v>
       </c>
       <c r="N22" s="7">
-        <v>1274411</v>
+        <v>1313128</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>423</v>
+        <v>271</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>147</v>
+        <v>404</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>424</v>
+        <v>437</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
         <v>73</v>
       </c>
       <c r="D23" s="7">
-        <v>96543</v>
+        <v>103311</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>425</v>
+        <v>438</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>65</v>
+        <v>439</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>426</v>
+        <v>440</v>
       </c>
       <c r="H23" s="7">
         <v>75</v>
       </c>
       <c r="I23" s="7">
-        <v>61004</v>
+        <v>57105</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>427</v>
+        <v>441</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>428</v>
+        <v>442</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>429</v>
+        <v>443</v>
       </c>
       <c r="M23" s="7">
         <v>148</v>
       </c>
       <c r="N23" s="7">
-        <v>157546</v>
+        <v>160416</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>430</v>
+        <v>277</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>431</v>
+        <v>444</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>155</v>
+        <v>412</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6044,51 +6101,51 @@
         <v>599</v>
       </c>
       <c r="D24" s="7">
-        <v>627754</v>
+        <v>624279</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H24" s="7">
         <v>960</v>
       </c>
       <c r="I24" s="7">
-        <v>804203</v>
+        <v>849265</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M24" s="7">
         <v>1559</v>
       </c>
       <c r="N24" s="7">
-        <v>1431957</v>
+        <v>1473544</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6097,97 +6154,97 @@
         <v>545</v>
       </c>
       <c r="D25" s="7">
-        <v>524598</v>
+        <v>446540</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>432</v>
+        <v>445</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>433</v>
+        <v>446</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>434</v>
+        <v>447</v>
       </c>
       <c r="H25" s="7">
         <v>836</v>
       </c>
       <c r="I25" s="7">
-        <v>632768</v>
+        <v>529915</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>435</v>
+        <v>448</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>436</v>
+        <v>449</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>437</v>
+        <v>450</v>
       </c>
       <c r="M25" s="7">
         <v>1381</v>
       </c>
       <c r="N25" s="7">
-        <v>1157366</v>
+        <v>976455</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>438</v>
+        <v>451</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>439</v>
+        <v>452</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>440</v>
+        <v>453</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C26" s="7">
         <v>217</v>
       </c>
       <c r="D26" s="7">
-        <v>334830</v>
+        <v>482180</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>441</v>
+        <v>454</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>442</v>
+        <v>455</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>443</v>
+        <v>456</v>
       </c>
       <c r="H26" s="7">
         <v>226</v>
       </c>
       <c r="I26" s="7">
-        <v>235666</v>
+        <v>187816</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>444</v>
+        <v>457</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>445</v>
+        <v>458</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>446</v>
+        <v>459</v>
       </c>
       <c r="M26" s="7">
         <v>443</v>
       </c>
       <c r="N26" s="7">
-        <v>570496</v>
+        <v>669997</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>447</v>
+        <v>460</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>448</v>
+        <v>461</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>449</v>
+        <v>462</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6199,46 +6256,46 @@
         <v>762</v>
       </c>
       <c r="D27" s="7">
-        <v>859428</v>
+        <v>928720</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H27" s="7">
         <v>1062</v>
       </c>
       <c r="I27" s="7">
-        <v>868434</v>
+        <v>717731</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M27" s="7">
         <v>1824</v>
       </c>
       <c r="N27" s="7">
-        <v>1727862</v>
+        <v>1646452</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6252,97 +6309,97 @@
         <v>2950</v>
       </c>
       <c r="D28" s="7">
-        <v>2775971</v>
+        <v>2686540</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>450</v>
+        <v>463</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>451</v>
+        <v>464</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>452</v>
+        <v>465</v>
       </c>
       <c r="H28" s="7">
         <v>4926</v>
       </c>
       <c r="I28" s="7">
-        <v>3369045</v>
+        <v>3230964</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>453</v>
+        <v>466</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>111</v>
+        <v>147</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>454</v>
+        <v>467</v>
       </c>
       <c r="M28" s="7">
         <v>7876</v>
       </c>
       <c r="N28" s="7">
-        <v>6145016</v>
+        <v>5917504</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>455</v>
+        <v>468</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>456</v>
+        <v>469</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>457</v>
+        <v>470</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C29" s="7">
         <v>426</v>
       </c>
       <c r="D29" s="7">
-        <v>609257</v>
+        <v>773277</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>458</v>
+        <v>471</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>459</v>
+        <v>472</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>460</v>
+        <v>473</v>
       </c>
       <c r="H29" s="7">
         <v>437</v>
       </c>
       <c r="I29" s="7">
-        <v>438519</v>
+        <v>430810</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>461</v>
+        <v>474</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>462</v>
+        <v>475</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>120</v>
+        <v>156</v>
       </c>
       <c r="M29" s="7">
         <v>863</v>
       </c>
       <c r="N29" s="7">
-        <v>1047776</v>
+        <v>1204087</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>463</v>
+        <v>476</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>464</v>
+        <v>477</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>465</v>
+        <v>478</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6354,51 +6411,51 @@
         <v>3376</v>
       </c>
       <c r="D30" s="7">
-        <v>3385228</v>
+        <v>3459817</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H30" s="7">
         <v>5363</v>
       </c>
       <c r="I30" s="7">
-        <v>3807564</v>
+        <v>3661774</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M30" s="7">
         <v>8739</v>
       </c>
       <c r="N30" s="7">
-        <v>7192792</v>
+        <v>7121591</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
